--- a/Texts/Особые Эпизоды/4 А вот и Команда Шарм!/Сюжет.xlsx
+++ b/Texts/Особые Эпизоды/4 А вот и Команда Шарм!/Сюжет.xlsx
@@ -3123,9 +3123,6 @@
     <t xml:space="preserve"> OK.\nLet\'s go! [M:H8]</t>
   </si>
   <si>
-    <t xml:space="preserve"> А?[K] Почему-то это место вылядит\nиначе.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Пока что, путь довольно прямой\nи без развилок...</t>
   </si>
   <si>
@@ -3237,9 +3234,6 @@
     <t xml:space="preserve"> Отлично. Вперёд! [M:H8]</t>
   </si>
   <si>
-    <t xml:space="preserve"> À?[K] Ðïœåíô-óï üóï íåòóï âúìÿäéó\néîàœå.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ðïëà œóï, ðôóû äïâïìûîï ðñÿíïê\né áåè ñàèâéìïë...</t>
   </si>
   <si>
@@ -5451,9 +5445,6 @@
     <t xml:space="preserve"> Мы не простим такую команду\nисследователей, как вы!</t>
   </si>
   <si>
-    <t xml:space="preserve"> Мы ещё и пообщали это [CS:N]Сентрету[CR].\nПохоже, мы сдержим своё слово!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Мы - охотницы за сокровищами -\nКоманда [CS:X]Шарм[CR]!</t>
   </si>
   <si>
@@ -5664,9 +5655,6 @@
     <t xml:space="preserve"> Íú îå ðñïòóéí óàëôý ëïíàîäô\néòòìåäïâàóåìåê, ëàë âú!</t>
   </si>
   <si>
-    <t xml:space="preserve"> Íú åþæ é ðïïáþàìé üóï [CS:N]Òåîóñåóô[CR].\nÐïöïçå, íú òäåñçéí òâïæ òìïâï!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Íú - ïöïóîéøú èà òïëñïâéþàíé -\nËïíàîäà [CS:X]Šàñí[CR]!</t>
   </si>
   <si>
@@ -7732,6 +7720,18 @@
   </si>
   <si>
     <t>[CN]ÔÏÏÍ... ÓÀÖ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А?[K] Почему-то это место выглядит\nиначе.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> À?[K] Ðïœåíô-óï üóï íåòóï âúãìÿäéó\néîàœå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы обещали это [CS:N]Сентрету[CR].\nПохоже, мы сдержим своё слово!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ïáåþàìé üóï [CS:N]Òåîóñåóô[CR].\nÐïöïçå, íú òäåñçéí òâïæ òìïâï!</t>
   </si>
 </sst>
 </file>
@@ -8418,8 +8418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H968"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A958" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F968" sqref="F968"/>
+    <sheetView tabSelected="1" topLeftCell="A683" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E688" sqref="E688"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8693,7 +8693,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A16" s="24"/>
       <c r="C16" s="13">
         <v>98</v>
@@ -10028,7 +10028,7 @@
         <v>983</v>
       </c>
       <c r="E104" s="17" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="F104" s="17"/>
     </row>
@@ -13670,10 +13670,10 @@
         <v>993</v>
       </c>
       <c r="E340" s="14" t="s">
-        <v>1034</v>
+        <v>2567</v>
       </c>
       <c r="F340" s="14" t="s">
-        <v>1072</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="341" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13685,10 +13685,10 @@
         <v>994</v>
       </c>
       <c r="E341" s="14" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F341" s="14" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="342" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13700,10 +13700,10 @@
         <v>995</v>
       </c>
       <c r="E342" s="14" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F342" s="14" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="343" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13715,10 +13715,10 @@
         <v>996</v>
       </c>
       <c r="E343" s="14" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F343" s="14" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="344" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13730,10 +13730,10 @@
         <v>997</v>
       </c>
       <c r="E344" s="14" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F344" s="14" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="345" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -13745,10 +13745,10 @@
         <v>998</v>
       </c>
       <c r="E345" s="14" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F345" s="14" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="346" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13760,10 +13760,10 @@
         <v>999</v>
       </c>
       <c r="E346" s="14" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F346" s="14" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="347" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13775,10 +13775,10 @@
         <v>1000</v>
       </c>
       <c r="E347" s="14" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F347" s="14" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="348" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -13790,10 +13790,10 @@
         <v>1001</v>
       </c>
       <c r="E348" s="14" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F348" s="14" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
@@ -13805,10 +13805,10 @@
         <v>1002</v>
       </c>
       <c r="E349" s="14" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F349" s="14" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
@@ -13820,10 +13820,10 @@
         <v>1003</v>
       </c>
       <c r="E350" s="14" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F350" s="14" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
@@ -13835,10 +13835,10 @@
         <v>1004</v>
       </c>
       <c r="E351" s="14" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F351" s="14" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="352" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13850,10 +13850,10 @@
         <v>1005</v>
       </c>
       <c r="E352" s="14" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F352" s="14" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
@@ -13865,10 +13865,10 @@
         <v>1006</v>
       </c>
       <c r="E353" s="14" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F353" s="14" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
@@ -13880,10 +13880,10 @@
         <v>1007</v>
       </c>
       <c r="E354" s="14" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F354" s="14" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
@@ -13895,10 +13895,10 @@
         <v>1008</v>
       </c>
       <c r="E355" s="14" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F355" s="14" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="356" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -13910,10 +13910,10 @@
         <v>1009</v>
       </c>
       <c r="E356" s="14" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F356" s="14" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
@@ -13925,10 +13925,10 @@
         <v>1010</v>
       </c>
       <c r="E357" s="14" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F357" s="14" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="358" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13942,10 +13942,10 @@
         <v>1011</v>
       </c>
       <c r="E358" s="14" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F358" s="14" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="359" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13957,10 +13957,10 @@
         <v>1012</v>
       </c>
       <c r="E359" s="14" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F359" s="14" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="360" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13972,10 +13972,10 @@
         <v>1013</v>
       </c>
       <c r="E360" s="14" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F360" s="14" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
@@ -13987,10 +13987,10 @@
         <v>1014</v>
       </c>
       <c r="E361" s="14" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F361" s="14" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
@@ -14004,10 +14004,10 @@
         <v>1015</v>
       </c>
       <c r="E362" s="14" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F362" s="14" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="363" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -14021,10 +14021,10 @@
         <v>1017</v>
       </c>
       <c r="E363" s="14" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F363" s="14" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="364" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14036,10 +14036,10 @@
         <v>1019</v>
       </c>
       <c r="E364" s="14" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F364" s="14" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
@@ -14051,10 +14051,10 @@
         <v>1020</v>
       </c>
       <c r="E365" s="14" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F365" s="14" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="366" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -14066,10 +14066,10 @@
         <v>1021</v>
       </c>
       <c r="E366" s="14" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F366" s="14" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="367" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -14081,10 +14081,10 @@
         <v>1022</v>
       </c>
       <c r="E367" s="14" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F367" s="14" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="368" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14096,10 +14096,10 @@
         <v>1023</v>
       </c>
       <c r="E368" s="14" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F368" s="14" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
@@ -14111,10 +14111,10 @@
         <v>1024</v>
       </c>
       <c r="E369" s="14" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F369" s="14" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="370" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14126,10 +14126,10 @@
         <v>1025</v>
       </c>
       <c r="E370" s="14" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F370" s="14" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="371" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14141,10 +14141,10 @@
         <v>1026</v>
       </c>
       <c r="E371" s="14" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F371" s="14" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="372" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14158,10 +14158,10 @@
         <v>1027</v>
       </c>
       <c r="E372" s="14" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F372" s="14" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
@@ -14173,10 +14173,10 @@
         <v>1028</v>
       </c>
       <c r="E373" s="14" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="F373" s="14" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="374" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14188,10 +14188,10 @@
         <v>1029</v>
       </c>
       <c r="E374" s="14" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="F374" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="375" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14203,10 +14203,10 @@
         <v>1030</v>
       </c>
       <c r="E375" s="14" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="F375" s="14" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
@@ -14220,10 +14220,10 @@
         <v>1015</v>
       </c>
       <c r="E376" s="14" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F376" s="14" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="377" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14235,10 +14235,10 @@
         <v>1031</v>
       </c>
       <c r="E377" s="14" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F377" s="14" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
@@ -14250,10 +14250,10 @@
         <v>1032</v>
       </c>
       <c r="E378" s="14" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F378" s="14" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="379" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -14266,18 +14266,18 @@
         <v>1033</v>
       </c>
       <c r="E379" s="40" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="F379" s="40" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="380" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A380" s="15" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B380" s="16" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C380" s="16"/>
       <c r="D380" s="17"/>
@@ -14290,13 +14290,13 @@
         <v>6</v>
       </c>
       <c r="D381" s="14" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="E381" s="14" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="F381" s="14" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
@@ -14305,13 +14305,13 @@
         <v>93</v>
       </c>
       <c r="D382" s="14" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="E382" s="14" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="F382" s="14" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="383" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14320,13 +14320,13 @@
         <v>105</v>
       </c>
       <c r="D383" s="14" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="E383" s="14" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="F383" s="14" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="384" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14335,13 +14335,13 @@
         <v>108</v>
       </c>
       <c r="D384" s="14" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="E384" s="14" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="F384" s="14" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="385" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14350,13 +14350,13 @@
         <v>120</v>
       </c>
       <c r="D385" s="14" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="E385" s="14" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="F385" s="14" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="386" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -14365,13 +14365,13 @@
         <v>132</v>
       </c>
       <c r="D386" s="14" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E386" s="14" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="F386" s="14" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
@@ -14380,13 +14380,13 @@
         <v>135</v>
       </c>
       <c r="D387" s="14" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="E387" s="14" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="F387" s="14" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="388" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14395,13 +14395,13 @@
         <v>139</v>
       </c>
       <c r="D388" s="14" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="E388" s="14" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="F388" s="14" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
@@ -14410,13 +14410,13 @@
         <v>144</v>
       </c>
       <c r="D389" s="14" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="E389" s="14" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="F389" s="14" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="390" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -14426,21 +14426,21 @@
         <v>149</v>
       </c>
       <c r="D390" s="40" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="E390" s="40" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="F390" s="40" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="391" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A391" s="15" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B391" s="16" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="C391" s="16"/>
       <c r="D391" s="17"/>
@@ -14456,10 +14456,10 @@
         <v>329</v>
       </c>
       <c r="E392" s="14" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="F392" s="14" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="393" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14468,13 +14468,13 @@
         <v>11</v>
       </c>
       <c r="D393" s="14" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="E393" s="14" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="F393" s="14" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="394" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14483,13 +14483,13 @@
         <v>102</v>
       </c>
       <c r="D394" s="14" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="E394" s="14" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="F394" s="14" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="395" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14498,13 +14498,13 @@
         <v>123</v>
       </c>
       <c r="D395" s="14" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="E395" s="14" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="F395" s="14" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="396" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -14514,21 +14514,21 @@
         <v>126</v>
       </c>
       <c r="D396" s="40" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="E396" s="40" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="F396" s="40" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="397" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A397" s="15" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B397" s="16" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="C397" s="16"/>
       <c r="D397" s="17"/>
@@ -14544,10 +14544,10 @@
         <v>329</v>
       </c>
       <c r="E398" s="14" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="F398" s="14" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="399" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14556,13 +14556,13 @@
         <v>11</v>
       </c>
       <c r="D399" s="14" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="E399" s="14" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="F399" s="14" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="400" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14586,13 +14586,13 @@
         <v>106</v>
       </c>
       <c r="D401" s="14" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="E401" s="14" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="F401" s="14" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="402" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14601,13 +14601,13 @@
         <v>111</v>
       </c>
       <c r="D402" s="14" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="E402" s="14" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="F402" s="14" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.3">
@@ -14616,13 +14616,13 @@
         <v>121</v>
       </c>
       <c r="D403" s="14" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="E403" s="14" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="F403" s="14" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="404" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -14631,13 +14631,13 @@
         <v>124</v>
       </c>
       <c r="D404" s="14" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="E404" s="14" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="F404" s="14" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="405" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14646,13 +14646,13 @@
         <v>129</v>
       </c>
       <c r="D405" s="14" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E405" s="14" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="F405" s="14" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="406" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -14662,21 +14662,21 @@
         <v>132</v>
       </c>
       <c r="D406" s="40" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="E406" s="40" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="F406" s="40" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="407" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A407" s="15" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="B407" s="16" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="C407" s="16"/>
       <c r="D407" s="17"/>
@@ -14691,13 +14691,13 @@
         <v>20</v>
       </c>
       <c r="D408" s="14" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="E408" s="14" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="F408" s="14" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="409" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14706,13 +14706,13 @@
         <v>31</v>
       </c>
       <c r="D409" s="14" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="E409" s="14" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="F409" s="14" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="410" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14721,13 +14721,13 @@
         <v>34</v>
       </c>
       <c r="D410" s="14" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="E410" s="14" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F410" s="14" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="411" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -14736,13 +14736,13 @@
         <v>51</v>
       </c>
       <c r="D411" s="14" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="E411" s="14" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="F411" s="14" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
@@ -14751,13 +14751,13 @@
         <v>54</v>
       </c>
       <c r="D412" s="14" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="E412" s="14" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="F412" s="14" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="413" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14766,13 +14766,13 @@
         <v>57</v>
       </c>
       <c r="D413" s="14" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="E413" s="14" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="F413" s="14" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.3">
@@ -14781,13 +14781,13 @@
         <v>67</v>
       </c>
       <c r="D414" s="14" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E414" s="14" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="F414" s="14" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="415" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14798,13 +14798,13 @@
         <v>72</v>
       </c>
       <c r="D415" s="14" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E415" s="14" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="F415" s="14" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.3">
@@ -14813,13 +14813,13 @@
         <v>75</v>
       </c>
       <c r="D416" s="14" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="E416" s="14" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="F416" s="14" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="417" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14828,13 +14828,13 @@
         <v>78</v>
       </c>
       <c r="D417" s="14" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E417" s="14" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="F417" s="14" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.3">
@@ -14843,13 +14843,13 @@
         <v>88</v>
       </c>
       <c r="D418" s="14" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="E418" s="14" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="F418" s="14" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="419" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14861,10 +14861,10 @@
         <v>1030</v>
       </c>
       <c r="E419" s="14" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="F419" s="14" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.3">
@@ -14878,10 +14878,10 @@
         <v>1015</v>
       </c>
       <c r="E420" s="14" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F420" s="14" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="421" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14893,10 +14893,10 @@
         <v>1031</v>
       </c>
       <c r="E421" s="14" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F421" s="14" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.3">
@@ -14908,10 +14908,10 @@
         <v>1032</v>
       </c>
       <c r="E422" s="14" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F422" s="14" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="423" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -14924,18 +14924,18 @@
         <v>1033</v>
       </c>
       <c r="E423" s="40" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="F423" s="40" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="424" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A424" s="15" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B424" s="16" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C424" s="16"/>
       <c r="D424" s="17"/>
@@ -14950,30 +14950,30 @@
         <v>23</v>
       </c>
       <c r="D425" s="14" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="E425" s="14" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="F425" s="14" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" s="24" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="C426" s="13">
         <v>28</v>
       </c>
       <c r="D426" s="14" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="E426" s="14" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="F426" s="14" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.3">
@@ -14984,30 +14984,30 @@
         <v>41</v>
       </c>
       <c r="D427" s="14" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="E427" s="14" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="F427" s="14" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428" s="24" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="C428" s="13">
         <v>74</v>
       </c>
       <c r="D428" s="14" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="E428" s="14" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="F428" s="14" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.3">
@@ -15016,13 +15016,13 @@
         <v>161</v>
       </c>
       <c r="D429" s="14" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="E429" s="14" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="F429" s="14" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="430" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15031,13 +15031,13 @@
         <v>170</v>
       </c>
       <c r="D430" s="14" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="E430" s="14" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="F430" s="14" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="431" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15046,13 +15046,13 @@
         <v>187</v>
       </c>
       <c r="D431" s="14" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="E431" s="14" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F431" s="14" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="432" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -15062,21 +15062,21 @@
         <v>192</v>
       </c>
       <c r="D432" s="40" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="E432" s="40" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F432" s="40" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="433" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A433" s="15" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B433" s="16" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="C433" s="16"/>
       <c r="D433" s="17"/>
@@ -15089,13 +15089,13 @@
         <v>50</v>
       </c>
       <c r="D434" s="14" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="E434" s="14" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="F434" s="14" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.3">
@@ -15119,13 +15119,13 @@
         <v>118</v>
       </c>
       <c r="D436" s="14" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="E436" s="14" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="F436" s="14" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.3">
@@ -15134,13 +15134,13 @@
         <v>134</v>
       </c>
       <c r="D437" s="14" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="E437" s="14" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="F437" s="14" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="438" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15149,13 +15149,13 @@
         <v>139</v>
       </c>
       <c r="D438" s="14" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="E438" s="14" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="F438" s="14" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="439" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15164,13 +15164,13 @@
         <v>144</v>
       </c>
       <c r="D439" s="14" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="E439" s="14" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="F439" s="14" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="440" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15179,13 +15179,13 @@
         <v>159</v>
       </c>
       <c r="D440" s="14" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="E440" s="14" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="F440" s="14" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="441" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -15194,13 +15194,13 @@
         <v>164</v>
       </c>
       <c r="D441" s="14" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="E441" s="14" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F441" s="14" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.3">
@@ -15209,13 +15209,13 @@
         <v>176</v>
       </c>
       <c r="D442" s="14" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="E442" s="14" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="F442" s="14" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="443" spans="1:6" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -15225,21 +15225,21 @@
         <v>179</v>
       </c>
       <c r="D443" s="40" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="E443" s="40" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="F443" s="40" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="444" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A444" s="15" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="B444" s="16" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C444" s="16"/>
       <c r="D444" s="17"/>
@@ -15252,13 +15252,13 @@
         <v>24</v>
       </c>
       <c r="D445" s="14" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="E445" s="14" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="F445" s="14" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.3">
@@ -15294,10 +15294,10 @@
     </row>
     <row r="448" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A448" s="15" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="B448" s="16" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="C448" s="16"/>
       <c r="D448" s="17"/>
@@ -15310,13 +15310,13 @@
         <v>24</v>
       </c>
       <c r="D449" s="14" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E449" s="14" t="s">
         <v>1275</v>
       </c>
-      <c r="E449" s="14" t="s">
-        <v>1277</v>
-      </c>
       <c r="F449" s="14" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.3">
@@ -15352,10 +15352,10 @@
     </row>
     <row r="452" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A452" s="15" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="B452" s="16" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="C452" s="16"/>
       <c r="D452" s="17"/>
@@ -15386,10 +15386,10 @@
         <v>330</v>
       </c>
       <c r="E454" s="14" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="F454" s="14" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="455" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15401,10 +15401,10 @@
         <v>331</v>
       </c>
       <c r="E455" s="14" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F455" s="14" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.3">
@@ -15416,10 +15416,10 @@
         <v>950</v>
       </c>
       <c r="E456" s="14" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="F456" s="14" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="457" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -15429,21 +15429,21 @@
         <v>109</v>
       </c>
       <c r="D457" s="40" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="E457" s="40" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F457" s="40" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="458" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A458" s="15" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="B458" s="16" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="C458" s="16"/>
       <c r="D458" s="17"/>
@@ -15456,13 +15456,13 @@
         <v>7</v>
       </c>
       <c r="D459" s="14" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="E459" s="14" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F459" s="14" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.3">
@@ -15471,13 +15471,13 @@
         <v>12</v>
       </c>
       <c r="D460" s="14" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="E460" s="14" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="F460" s="14" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="461" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15486,13 +15486,13 @@
         <v>17</v>
       </c>
       <c r="D461" s="14" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="E461" s="14" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="F461" s="14" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.3">
@@ -15501,13 +15501,13 @@
         <v>112</v>
       </c>
       <c r="D462" s="14" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="E462" s="14" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="F462" s="14" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.3">
@@ -15516,13 +15516,13 @@
         <v>117</v>
       </c>
       <c r="D463" s="14" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="E463" s="14" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="F463" s="14" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.3">
@@ -15531,13 +15531,13 @@
         <v>130</v>
       </c>
       <c r="D464" s="14" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="E464" s="14" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F464" s="14" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.3">
@@ -15546,13 +15546,13 @@
         <v>139</v>
       </c>
       <c r="D465" s="14" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="E465" s="14" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="F465" s="14" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="466" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15561,13 +15561,13 @@
         <v>148</v>
       </c>
       <c r="D466" s="14" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="E466" s="14" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="F466" s="14" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="467" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15576,13 +15576,13 @@
         <v>160</v>
       </c>
       <c r="D467" s="14" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="E467" s="14" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="F467" s="14" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="468" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -15592,21 +15592,21 @@
         <v>172</v>
       </c>
       <c r="D468" s="40" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="E468" s="40" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="F468" s="40" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="469" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A469" s="15" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="B469" s="16" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="C469" s="16"/>
       <c r="D469" s="17"/>
@@ -15619,13 +15619,13 @@
         <v>96</v>
       </c>
       <c r="D470" s="14" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="E470" s="14" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="F470" s="14" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.3">
@@ -15634,13 +15634,13 @@
         <v>101</v>
       </c>
       <c r="D471" s="14" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="E471" s="14" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="F471" s="14" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.3">
@@ -15649,13 +15649,13 @@
         <v>114</v>
       </c>
       <c r="D472" s="14" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="E472" s="14" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="F472" s="14" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="473" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15664,13 +15664,13 @@
         <v>117</v>
       </c>
       <c r="D473" s="14" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="E473" s="14" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="F473" s="14" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="474" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15679,13 +15679,13 @@
         <v>126</v>
       </c>
       <c r="D474" s="14" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="E474" s="14" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="F474" s="14" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.3">
@@ -15694,13 +15694,13 @@
         <v>131</v>
       </c>
       <c r="D475" s="14" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="E475" s="14" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="F475" s="14" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="476" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15709,13 +15709,13 @@
         <v>134</v>
       </c>
       <c r="D476" s="14" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="E476" s="14" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="F476" s="14" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.3">
@@ -15724,13 +15724,13 @@
         <v>144</v>
       </c>
       <c r="D477" s="14" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="E477" s="14" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="F477" s="14" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="478" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -15739,21 +15739,21 @@
         <v>147</v>
       </c>
       <c r="D478" s="14" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="E478" s="14" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="F478" s="14" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="479" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A479" s="15" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="B479" s="16" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="C479" s="16"/>
       <c r="D479" s="17"/>
@@ -15766,13 +15766,13 @@
         <v>7</v>
       </c>
       <c r="D480" s="14" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="E480" s="14" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F480" s="14" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.3">
@@ -15781,13 +15781,13 @@
         <v>12</v>
       </c>
       <c r="D481" s="14" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="E481" s="14" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="F481" s="14" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="482" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15796,13 +15796,13 @@
         <v>17</v>
       </c>
       <c r="D482" s="14" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="E482" s="14" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="F482" s="14" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.3">
@@ -15811,13 +15811,13 @@
         <v>109</v>
       </c>
       <c r="D483" s="14" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="E483" s="14" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="F483" s="14" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.3">
@@ -15826,13 +15826,13 @@
         <v>114</v>
       </c>
       <c r="D484" s="14" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="E484" s="14" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="F484" s="14" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.3">
@@ -15841,13 +15841,13 @@
         <v>127</v>
       </c>
       <c r="D485" s="14" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="E485" s="14" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F485" s="14" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.3">
@@ -15856,13 +15856,13 @@
         <v>136</v>
       </c>
       <c r="D486" s="14" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="E486" s="14" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="F486" s="14" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="487" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15871,13 +15871,13 @@
         <v>145</v>
       </c>
       <c r="D487" s="14" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E487" s="14" t="s">
         <v>1351</v>
       </c>
-      <c r="E487" s="14" t="s">
+      <c r="F487" s="14" t="s">
         <v>1353</v>
-      </c>
-      <c r="F487" s="14" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="488" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15886,13 +15886,13 @@
         <v>160</v>
       </c>
       <c r="D488" s="14" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="E488" s="14" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="F488" s="14" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="489" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -15902,21 +15902,21 @@
         <v>165</v>
       </c>
       <c r="D489" s="40" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E489" s="40" t="s">
         <v>1352</v>
       </c>
-      <c r="E489" s="40" t="s">
+      <c r="F489" s="40" t="s">
         <v>1354</v>
-      </c>
-      <c r="F489" s="40" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="490" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A490" s="15" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="B490" s="16" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="C490" s="16"/>
       <c r="D490" s="17"/>
@@ -15929,13 +15929,13 @@
         <v>93</v>
       </c>
       <c r="D491" s="14" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E491" s="14" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F491" s="14" t="s">
         <v>1358</v>
-      </c>
-      <c r="E491" s="14" t="s">
-        <v>1359</v>
-      </c>
-      <c r="F491" s="14" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.3">
@@ -15944,13 +15944,13 @@
         <v>98</v>
       </c>
       <c r="D492" s="14" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="E492" s="14" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="F492" s="14" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.3">
@@ -15959,13 +15959,13 @@
         <v>111</v>
       </c>
       <c r="D493" s="14" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="E493" s="14" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="F493" s="14" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="494" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15974,13 +15974,13 @@
         <v>114</v>
       </c>
       <c r="D494" s="14" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="E494" s="14" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="F494" s="14" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="495" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15989,13 +15989,13 @@
         <v>123</v>
       </c>
       <c r="D495" s="14" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="E495" s="14" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="F495" s="14" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.3">
@@ -16004,13 +16004,13 @@
         <v>128</v>
       </c>
       <c r="D496" s="14" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="E496" s="14" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="F496" s="14" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="497" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -16019,13 +16019,13 @@
         <v>131</v>
       </c>
       <c r="D497" s="14" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="E497" s="14" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="F497" s="14" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.3">
@@ -16034,13 +16034,13 @@
         <v>141</v>
       </c>
       <c r="D498" s="14" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="E498" s="14" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="F498" s="14" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="499" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -16050,21 +16050,21 @@
         <v>144</v>
       </c>
       <c r="D499" s="40" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="E499" s="40" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="F499" s="40" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="500" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A500" s="15" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B500" s="16" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="C500" s="16"/>
       <c r="D500" s="17"/>
@@ -16077,13 +16077,13 @@
         <v>7</v>
       </c>
       <c r="D501" s="14" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="E501" s="14" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="F501" s="14" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.3">
@@ -16092,13 +16092,13 @@
         <v>12</v>
       </c>
       <c r="D502" s="14" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="E502" s="14" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="F502" s="14" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.3">
@@ -16107,13 +16107,13 @@
         <v>109</v>
       </c>
       <c r="D503" s="14" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="E503" s="14" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="F503" s="14" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.3">
@@ -16122,13 +16122,13 @@
         <v>114</v>
       </c>
       <c r="D504" s="14" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="E504" s="14" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="F504" s="14" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.3">
@@ -16137,13 +16137,13 @@
         <v>120</v>
       </c>
       <c r="D505" s="14" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="E505" s="14" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="F505" s="14" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="506" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -16152,13 +16152,13 @@
         <v>148</v>
       </c>
       <c r="D506" s="14" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="E506" s="14" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="F506" s="14" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="507" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -16167,13 +16167,13 @@
         <v>165</v>
       </c>
       <c r="D507" s="14" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="E507" s="14" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="F507" s="14" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.3">
@@ -16182,13 +16182,13 @@
         <v>182</v>
       </c>
       <c r="D508" s="14" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="E508" s="14" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="F508" s="14" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="509" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16197,21 +16197,21 @@
         <v>185</v>
       </c>
       <c r="D509" s="14" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="E509" s="14" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="F509" s="14" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="510" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A510" s="15" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="B510" s="16" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="C510" s="16"/>
       <c r="D510" s="17"/>
@@ -16224,13 +16224,13 @@
         <v>7</v>
       </c>
       <c r="D511" s="14" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="E511" s="14" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="F511" s="14" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.3">
@@ -16239,13 +16239,13 @@
         <v>12</v>
       </c>
       <c r="D512" s="14" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="E512" s="14" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="F512" s="14" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.3">
@@ -16254,13 +16254,13 @@
         <v>105</v>
       </c>
       <c r="D513" s="14" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="E513" s="14" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="F513" s="14" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.3">
@@ -16269,13 +16269,13 @@
         <v>111</v>
       </c>
       <c r="D514" s="14" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="E514" s="14" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="F514" s="14" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.3">
@@ -16284,13 +16284,13 @@
         <v>116</v>
       </c>
       <c r="D515" s="14" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="E515" s="14" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="F515" s="14" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="516" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -16299,13 +16299,13 @@
         <v>145</v>
       </c>
       <c r="D516" s="14" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E516" s="14" t="s">
         <v>1391</v>
       </c>
-      <c r="E516" s="14" t="s">
+      <c r="F516" s="14" t="s">
         <v>1393</v>
-      </c>
-      <c r="F516" s="14" t="s">
-        <v>1395</v>
       </c>
     </row>
     <row r="517" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -16314,13 +16314,13 @@
         <v>162</v>
       </c>
       <c r="D517" s="14" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E517" s="14" t="s">
         <v>1392</v>
       </c>
-      <c r="E517" s="14" t="s">
+      <c r="F517" s="14" t="s">
         <v>1394</v>
-      </c>
-      <c r="F517" s="14" t="s">
-        <v>1396</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.3">
@@ -16329,13 +16329,13 @@
         <v>179</v>
       </c>
       <c r="D518" s="14" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="E518" s="14" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="F518" s="14" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.3">
@@ -16345,19 +16345,19 @@
         <v>182</v>
       </c>
       <c r="D519" s="28" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="E519" s="28" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="F519" s="28" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="520" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A520" s="22"/>
       <c r="B520" s="22" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="C520" s="22"/>
       <c r="D520" s="23"/>
@@ -16370,13 +16370,13 @@
         <v>25</v>
       </c>
       <c r="D521" s="14" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="E521" s="14" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="F521" s="14" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="522" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -16385,13 +16385,13 @@
         <v>28</v>
       </c>
       <c r="D522" s="14" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="E522" s="14" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="F522" s="14" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="523" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -16400,13 +16400,13 @@
         <v>37</v>
       </c>
       <c r="D523" s="14" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="E523" s="14" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="F523" s="14" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.3">
@@ -16415,13 +16415,13 @@
         <v>46</v>
       </c>
       <c r="D524" s="14" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="E524" s="14" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="F524" s="14" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="525" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -16430,13 +16430,13 @@
         <v>50</v>
       </c>
       <c r="D525" s="14" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="E525" s="14" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="F525" s="14" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="526" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -16445,13 +16445,13 @@
         <v>53</v>
       </c>
       <c r="D526" s="14" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="E526" s="14" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="F526" s="14" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="527" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -16460,13 +16460,13 @@
         <v>58</v>
       </c>
       <c r="D527" s="14" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="E527" s="14" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="F527" s="14" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="528" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -16475,13 +16475,13 @@
         <v>67</v>
       </c>
       <c r="D528" s="14" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="E528" s="14" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="F528" s="14" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.3">
@@ -16490,13 +16490,13 @@
         <v>84</v>
       </c>
       <c r="D529" s="14" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="E529" s="14" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="F529" s="14" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="530" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -16505,13 +16505,13 @@
         <v>87</v>
       </c>
       <c r="D530" s="14" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="E530" s="14" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="F530" s="14" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="531" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -16520,13 +16520,13 @@
         <v>92</v>
       </c>
       <c r="D531" s="14" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="E531" s="14" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="F531" s="14" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="532" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -16535,13 +16535,13 @@
         <v>110</v>
       </c>
       <c r="D532" s="14" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="E532" s="14" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="F532" s="14" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="533" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -16550,13 +16550,13 @@
         <v>113</v>
       </c>
       <c r="D533" s="14" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="E533" s="14" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="F533" s="14" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="534" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -16565,13 +16565,13 @@
         <v>118</v>
       </c>
       <c r="D534" s="14" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="E534" s="14" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="F534" s="14" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.3">
@@ -16580,13 +16580,13 @@
         <v>131</v>
       </c>
       <c r="D535" s="14" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="E535" s="14" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="F535" s="14" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="536" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -16595,13 +16595,13 @@
         <v>134</v>
       </c>
       <c r="D536" s="14" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="E536" s="14" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="F536" s="14" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.3">
@@ -16610,13 +16610,13 @@
         <v>141</v>
       </c>
       <c r="D537" s="14" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="E537" s="14" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="F537" s="14" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.3">
@@ -16625,13 +16625,13 @@
         <v>204</v>
       </c>
       <c r="D538" s="14" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="E538" s="14" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="F538" s="14" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="539" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -16642,13 +16642,13 @@
         <v>256</v>
       </c>
       <c r="D539" s="14" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="E539" s="14" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="F539" s="14" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.3">
@@ -16660,10 +16660,10 @@
         <v>651</v>
       </c>
       <c r="E540" s="14" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="F540" s="14" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.3">
@@ -16672,13 +16672,13 @@
         <v>268</v>
       </c>
       <c r="D541" s="14" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="E541" s="14" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="F541" s="14" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.3">
@@ -16689,13 +16689,13 @@
         <v>275</v>
       </c>
       <c r="D542" s="14" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="E542" s="14" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="F542" s="14" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.3">
@@ -16704,13 +16704,13 @@
         <v>278</v>
       </c>
       <c r="D543" s="14" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="E543" s="14" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="F543" s="14" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.3">
@@ -16719,13 +16719,13 @@
         <v>285</v>
       </c>
       <c r="D544" s="14" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="E544" s="14" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="F544" s="14" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="545" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -16734,13 +16734,13 @@
         <v>290</v>
       </c>
       <c r="D545" s="14" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="E545" s="14" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="F545" s="14" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.3">
@@ -16749,13 +16749,13 @@
         <v>303</v>
       </c>
       <c r="D546" s="14" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="E546" s="14" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="F546" s="14" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="547" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -16764,13 +16764,13 @@
         <v>312</v>
       </c>
       <c r="D547" s="14" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="E547" s="14" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="F547" s="14" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.3">
@@ -16781,13 +16781,13 @@
         <v>320</v>
       </c>
       <c r="D548" s="14" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="E548" s="14" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="F548" s="14" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="549" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -16796,13 +16796,13 @@
         <v>323</v>
       </c>
       <c r="D549" s="14" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="E549" s="14" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="F549" s="14" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="550" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -16811,13 +16811,13 @@
         <v>327</v>
       </c>
       <c r="D550" s="14" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="E550" s="14" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="F550" s="14" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="551" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -16826,13 +16826,13 @@
         <v>331</v>
       </c>
       <c r="D551" s="14" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="E551" s="14" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="F551" s="14" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.3">
@@ -16841,13 +16841,13 @@
         <v>352</v>
       </c>
       <c r="D552" s="14" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="E552" s="14" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="F552" s="14" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.3">
@@ -16856,13 +16856,13 @@
         <v>355</v>
       </c>
       <c r="D553" s="14" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="E553" s="14" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="F553" s="14" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.3">
@@ -16873,13 +16873,13 @@
         <v>362</v>
       </c>
       <c r="D554" s="14" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="E554" s="14" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="F554" s="14" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.3">
@@ -16888,13 +16888,13 @@
         <v>367</v>
       </c>
       <c r="D555" s="14" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="E555" s="14" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="F555" s="14" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.3">
@@ -16903,13 +16903,13 @@
         <v>384</v>
       </c>
       <c r="D556" s="14" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="E556" s="14" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="F556" s="14" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="557" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -16918,13 +16918,13 @@
         <v>387</v>
       </c>
       <c r="D557" s="14" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="E557" s="14" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="F557" s="14" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="558" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -16933,13 +16933,13 @@
         <v>390</v>
       </c>
       <c r="D558" s="14" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="E558" s="14" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="F558" s="14" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="559" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -16948,13 +16948,13 @@
         <v>400</v>
       </c>
       <c r="D559" s="14" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="E559" s="14" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="F559" s="14" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="560" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -16963,13 +16963,13 @@
         <v>403</v>
       </c>
       <c r="D560" s="14" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="E560" s="14" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="F560" s="14" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="561" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -16980,13 +16980,13 @@
         <v>411</v>
       </c>
       <c r="D561" s="14" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="E561" s="14" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="F561" s="14" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.3">
@@ -16995,13 +16995,13 @@
         <v>420</v>
       </c>
       <c r="D562" s="14" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="E562" s="14" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="F562" s="14" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="563" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -17010,13 +17010,13 @@
         <v>423</v>
       </c>
       <c r="D563" s="14" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="E563" s="14" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="F563" s="14" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="564" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -17025,13 +17025,13 @@
         <v>461</v>
       </c>
       <c r="D564" s="14" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E564" s="14" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="F564" s="14" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="565" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -17040,13 +17040,13 @@
         <v>464</v>
       </c>
       <c r="D565" s="14" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="E565" s="14" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="F565" s="14" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="566" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -17055,13 +17055,13 @@
         <v>469</v>
       </c>
       <c r="D566" s="14" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="E566" s="14" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="F566" s="14" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.3">
@@ -17070,13 +17070,13 @@
         <v>474</v>
       </c>
       <c r="D567" s="14" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="E567" s="14" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="F567" s="14" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.3">
@@ -17085,13 +17085,13 @@
         <v>477</v>
       </c>
       <c r="D568" s="14" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="E568" s="14" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="F568" s="14" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.3">
@@ -17100,13 +17100,13 @@
         <v>480</v>
       </c>
       <c r="D569" s="14" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="E569" s="14" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="F569" s="14" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.3">
@@ -17117,13 +17117,13 @@
         <v>487</v>
       </c>
       <c r="D570" s="14" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="E570" s="14" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="F570" s="14" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.3">
@@ -17149,13 +17149,13 @@
         <v>530</v>
       </c>
       <c r="D572" s="14" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="E572" s="14" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="F572" s="14" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="573" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -17164,13 +17164,13 @@
         <v>533</v>
       </c>
       <c r="D573" s="14" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="E573" s="14" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="F573" s="14" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.3">
@@ -17179,13 +17179,13 @@
         <v>536</v>
       </c>
       <c r="D574" s="14" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="E574" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="F574" s="14" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="575" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -17194,13 +17194,13 @@
         <v>539</v>
       </c>
       <c r="D575" s="14" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="E575" s="14" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="F575" s="14" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.3">
@@ -17209,13 +17209,13 @@
         <v>543</v>
       </c>
       <c r="D576" s="14" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="E576" s="14" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="F576" s="14" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.3">
@@ -17224,13 +17224,13 @@
         <v>547</v>
       </c>
       <c r="D577" s="14" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="E577" s="14" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="F577" s="14" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="578" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -17239,13 +17239,13 @@
         <v>557</v>
       </c>
       <c r="D578" s="14" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="E578" s="14" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="F578" s="14" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.3">
@@ -17254,13 +17254,13 @@
         <v>575</v>
       </c>
       <c r="D579" s="14" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="E579" s="14" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="F579" s="14" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.3">
@@ -17269,13 +17269,13 @@
         <v>580</v>
       </c>
       <c r="D580" s="14" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="E580" s="14" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="F580" s="14" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.3">
@@ -17286,13 +17286,13 @@
         <v>595</v>
       </c>
       <c r="D581" s="14" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="E581" s="14" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="F581" s="14" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.3">
@@ -17301,13 +17301,13 @@
         <v>629</v>
       </c>
       <c r="D582" s="14" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="E582" s="14" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="F582" s="14" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.3">
@@ -17316,13 +17316,13 @@
         <v>650</v>
       </c>
       <c r="D583" s="14" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="E583" s="14" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="F583" s="14" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.3">
@@ -17331,13 +17331,13 @@
         <v>685</v>
       </c>
       <c r="D584" s="14" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="E584" s="14" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="F584" s="14" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="585" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -17346,13 +17346,13 @@
         <v>690</v>
       </c>
       <c r="D585" s="14" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="E585" s="14" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="F585" s="14" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="586" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -17361,13 +17361,13 @@
         <v>707</v>
       </c>
       <c r="D586" s="14" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="E586" s="14" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="F586" s="14" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.3">
@@ -17376,13 +17376,13 @@
         <v>712</v>
       </c>
       <c r="D587" s="14" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="E587" s="14" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="F587" s="14" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="588" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -17391,13 +17391,13 @@
         <v>717</v>
       </c>
       <c r="D588" s="14" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="E588" s="14" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="F588" s="14" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="589" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -17406,13 +17406,13 @@
         <v>722</v>
       </c>
       <c r="D589" s="14" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="E589" s="14" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="F589" s="14" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="590" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -17421,13 +17421,13 @@
         <v>732</v>
       </c>
       <c r="D590" s="14" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="E590" s="14" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="F590" s="14" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="591" spans="1:6" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -17437,21 +17437,21 @@
         <v>736</v>
       </c>
       <c r="D591" s="40" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="E591" s="40" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="F591" s="40" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="592" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A592" s="15" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="B592" s="22" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="C592" s="16"/>
       <c r="D592" s="17"/>
@@ -17464,13 +17464,13 @@
         <v>28</v>
       </c>
       <c r="D593" s="14" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="E593" s="14" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F593" s="14" t="s">
         <v>1612</v>
-      </c>
-      <c r="F593" s="14" t="s">
-        <v>1614</v>
       </c>
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.3">
@@ -17494,13 +17494,13 @@
         <v>64</v>
       </c>
       <c r="D595" s="14" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="E595" s="14" t="s">
+        <v>1611</v>
+      </c>
+      <c r="F595" s="14" t="s">
         <v>1613</v>
-      </c>
-      <c r="F595" s="14" t="s">
-        <v>1615</v>
       </c>
     </row>
     <row r="596" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -17521,10 +17521,10 @@
     </row>
     <row r="597" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A597" s="15" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="B597" s="22" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="C597" s="16"/>
       <c r="D597" s="17"/>
@@ -17555,10 +17555,10 @@
         <v>330</v>
       </c>
       <c r="E599" s="14" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="F599" s="14" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="600" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -17570,10 +17570,10 @@
         <v>331</v>
       </c>
       <c r="E600" s="14" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F600" s="14" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.3">
@@ -17585,10 +17585,10 @@
         <v>950</v>
       </c>
       <c r="E601" s="14" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="F601" s="14" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="602" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -17598,21 +17598,21 @@
         <v>109</v>
       </c>
       <c r="D602" s="40" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="E602" s="40" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F602" s="40" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="603" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A603" s="15" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="B603" s="22" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="C603" s="16"/>
       <c r="D603" s="17"/>
@@ -17625,13 +17625,13 @@
         <v>28</v>
       </c>
       <c r="D604" s="14" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="E604" s="14" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F604" s="14" t="s">
         <v>1612</v>
-      </c>
-      <c r="F604" s="14" t="s">
-        <v>1614</v>
       </c>
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.3">
@@ -17667,10 +17667,10 @@
     </row>
     <row r="607" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A607" s="15" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="B607" s="16" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="C607" s="16"/>
       <c r="D607" s="17"/>
@@ -17683,13 +17683,13 @@
         <v>66</v>
       </c>
       <c r="D608" s="14" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="E608" s="14" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="F608" s="14" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.3">
@@ -17698,13 +17698,13 @@
         <v>71</v>
       </c>
       <c r="D609" s="14" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="E609" s="14" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="F609" s="14" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="610" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -17713,13 +17713,13 @@
         <v>74</v>
       </c>
       <c r="D610" s="14" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="E610" s="14" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="F610" s="14" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.3">
@@ -17728,13 +17728,13 @@
         <v>79</v>
       </c>
       <c r="D611" s="14" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="E611" s="14" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="F611" s="14" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="612" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -17743,13 +17743,13 @@
         <v>82</v>
       </c>
       <c r="D612" s="14" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="E612" s="14" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="F612" s="14" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="613" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -17758,13 +17758,13 @@
         <v>107</v>
       </c>
       <c r="D613" s="14" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="E613" s="14" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="F613" s="14" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="614" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -17774,21 +17774,21 @@
         <v>112</v>
       </c>
       <c r="D614" s="40" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="E614" s="40" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="F614" s="40" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="615" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A615" s="15" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="B615" s="16" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="C615" s="16"/>
       <c r="D615" s="17"/>
@@ -17801,13 +17801,13 @@
         <v>67</v>
       </c>
       <c r="D616" s="14" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="E616" s="14" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="F616" s="14" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="617" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -17816,13 +17816,13 @@
         <v>97</v>
       </c>
       <c r="D617" s="14" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="E617" s="14" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="F617" s="14" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.3">
@@ -17831,13 +17831,13 @@
         <v>106</v>
       </c>
       <c r="D618" s="14" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="E618" s="14" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="F618" s="14" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.3">
@@ -17846,28 +17846,28 @@
         <v>114</v>
       </c>
       <c r="D619" s="14" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="E619" s="14" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="F619" s="14" t="s">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="620" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A620" s="25"/>
       <c r="C620" s="13">
         <v>117</v>
       </c>
       <c r="D620" s="14" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="E620" s="14" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="F620" s="14" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="621" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -17876,13 +17876,13 @@
         <v>120</v>
       </c>
       <c r="D621" s="14" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="E621" s="14" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="F621" s="14" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="622" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -17892,21 +17892,21 @@
         <v>123</v>
       </c>
       <c r="D622" s="40" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="E622" s="40" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="F622" s="40" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="623" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A623" s="15" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="B623" s="16" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="C623" s="16"/>
       <c r="D623" s="17"/>
@@ -17937,10 +17937,10 @@
         <v>330</v>
       </c>
       <c r="E625" s="14" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="F625" s="14" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="626" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -17952,10 +17952,10 @@
         <v>331</v>
       </c>
       <c r="E626" s="14" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F626" s="14" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="627" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -17964,13 +17964,13 @@
         <v>111</v>
       </c>
       <c r="D627" s="14" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="E627" s="14" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="F627" s="14" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="628" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -17980,21 +17980,21 @@
         <v>114</v>
       </c>
       <c r="D628" s="40" t="s">
+        <v>1668</v>
+      </c>
+      <c r="E628" s="40" t="s">
+        <v>1669</v>
+      </c>
+      <c r="F628" s="40" t="s">
         <v>1670</v>
-      </c>
-      <c r="E628" s="40" t="s">
-        <v>1671</v>
-      </c>
-      <c r="F628" s="40" t="s">
-        <v>1672</v>
       </c>
     </row>
     <row r="629" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A629" s="51" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="B629" s="52" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="C629" s="52"/>
       <c r="D629" s="53"/>
@@ -18007,13 +18007,13 @@
         <v>12</v>
       </c>
       <c r="D630" s="14" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="E630" s="14" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="F630" s="14" t="s">
-        <v>1819</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="631" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -18022,13 +18022,13 @@
         <v>17</v>
       </c>
       <c r="D631" s="14" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="E631" s="14" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="F631" s="14" t="s">
-        <v>1820</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="632" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -18037,13 +18037,13 @@
         <v>22</v>
       </c>
       <c r="D632" s="14" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="E632" s="14" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="F632" s="14" t="s">
-        <v>1821</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.3">
@@ -18052,13 +18052,13 @@
         <v>27</v>
       </c>
       <c r="D633" s="14" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="E633" s="14" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="F633" s="14" t="s">
-        <v>1822</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.3">
@@ -18067,13 +18067,13 @@
         <v>32</v>
       </c>
       <c r="D634" s="14" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="E634" s="14" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="F634" s="14" t="s">
-        <v>1823</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="635" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -18082,13 +18082,13 @@
         <v>70</v>
       </c>
       <c r="D635" s="14" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="E635" s="14" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="F635" s="14" t="s">
-        <v>1824</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.3">
@@ -18097,13 +18097,13 @@
         <v>103</v>
       </c>
       <c r="D636" s="14" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="E636" s="14" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F636" s="14" t="s">
-        <v>1825</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="637" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -18112,13 +18112,13 @@
         <v>108</v>
       </c>
       <c r="D637" s="14" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="E637" s="14" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="F637" s="14" t="s">
-        <v>1826</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="638" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -18127,13 +18127,13 @@
         <v>113</v>
       </c>
       <c r="D638" s="14" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="E638" s="14" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="F638" s="14" t="s">
-        <v>1827</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="639" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -18142,13 +18142,13 @@
         <v>122</v>
       </c>
       <c r="D639" s="14" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="E639" s="14" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="F639" s="14" t="s">
-        <v>1828</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="640" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -18157,13 +18157,13 @@
         <v>131</v>
       </c>
       <c r="D640" s="14" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="E640" s="14" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="F640" s="14" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="641" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -18172,13 +18172,13 @@
         <v>134</v>
       </c>
       <c r="D641" s="14" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="E641" s="14" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="F641" s="14" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="642" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -18187,13 +18187,13 @@
         <v>138</v>
       </c>
       <c r="D642" s="14" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="E642" s="14" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="F642" s="14" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.3">
@@ -18202,13 +18202,13 @@
         <v>143</v>
       </c>
       <c r="D643" s="14" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="E643" s="14" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="F643" s="14" t="s">
-        <v>1832</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="644" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -18217,13 +18217,13 @@
         <v>153</v>
       </c>
       <c r="D644" s="14" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="E644" s="14" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="F644" s="14" t="s">
-        <v>1833</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="645" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -18232,13 +18232,13 @@
         <v>156</v>
       </c>
       <c r="D645" s="14" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="E645" s="14" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="F645" s="14" t="s">
-        <v>1834</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="646" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -18247,13 +18247,13 @@
         <v>161</v>
       </c>
       <c r="D646" s="14" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="E646" s="14" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="F646" s="14" t="s">
-        <v>1835</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.3">
@@ -18262,13 +18262,13 @@
         <v>173</v>
       </c>
       <c r="D647" s="14" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="E647" s="14" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="F647" s="14" t="s">
-        <v>1836</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="648" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -18277,13 +18277,13 @@
         <v>176</v>
       </c>
       <c r="D648" s="14" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="E648" s="14" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="F648" s="14" t="s">
-        <v>1837</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="649" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -18292,13 +18292,13 @@
         <v>179</v>
       </c>
       <c r="D649" s="14" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="E649" s="14" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="F649" s="14" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="650" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -18307,13 +18307,13 @@
         <v>182</v>
       </c>
       <c r="D650" s="14" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="E650" s="14" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="F650" s="14" t="s">
-        <v>1839</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="651" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -18322,13 +18322,13 @@
         <v>185</v>
       </c>
       <c r="D651" s="14" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="E651" s="14" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="F651" s="14" t="s">
-        <v>1840</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="652" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -18337,13 +18337,13 @@
         <v>188</v>
       </c>
       <c r="D652" s="14" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="E652" s="14" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="F652" s="14" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.3">
@@ -18352,13 +18352,13 @@
         <v>192</v>
       </c>
       <c r="D653" s="14" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="E653" s="14" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="F653" s="14" t="s">
-        <v>1842</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="654" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -18367,13 +18367,13 @@
         <v>209</v>
       </c>
       <c r="D654" s="14" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="E654" s="14" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="F654" s="14" t="s">
-        <v>1843</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.3">
@@ -18382,28 +18382,28 @@
         <v>219</v>
       </c>
       <c r="D655" s="14" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="E655" s="14" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="F655" s="14" t="s">
-        <v>1844</v>
-      </c>
-    </row>
-    <row r="656" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A656" s="18"/>
       <c r="C656" s="13">
         <v>236</v>
       </c>
       <c r="D656" s="14" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="E656" s="14" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="F656" s="14" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.3">
@@ -18412,13 +18412,13 @@
         <v>259</v>
       </c>
       <c r="D657" s="14" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="E657" s="14" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="F657" s="14" t="s">
-        <v>1846</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.3">
@@ -18427,13 +18427,13 @@
         <v>264</v>
       </c>
       <c r="D658" s="14" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="E658" s="14" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="F658" s="14" t="s">
-        <v>1847</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.3">
@@ -18442,13 +18442,13 @@
         <v>269</v>
       </c>
       <c r="D659" s="14" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="E659" s="14" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="F659" s="14" t="s">
-        <v>1848</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.3">
@@ -18457,13 +18457,13 @@
         <v>298</v>
       </c>
       <c r="D660" s="14" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E660" s="14" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F660" s="14" t="s">
-        <v>1849</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.3">
@@ -18472,13 +18472,13 @@
         <v>303</v>
       </c>
       <c r="D661" s="14" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="E661" s="14" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="F661" s="14" t="s">
-        <v>1850</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.3">
@@ -18487,13 +18487,13 @@
         <v>308</v>
       </c>
       <c r="D662" s="14" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="E662" s="14" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="F662" s="14" t="s">
-        <v>1851</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="663" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -18502,13 +18502,13 @@
         <v>321</v>
       </c>
       <c r="D663" s="14" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="E663" s="14" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="F663" s="14" t="s">
-        <v>1852</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.3">
@@ -18517,13 +18517,13 @@
         <v>334</v>
       </c>
       <c r="D664" s="14" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="E664" s="14" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="F664" s="14" t="s">
-        <v>1853</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.3">
@@ -18532,13 +18532,13 @@
         <v>337</v>
       </c>
       <c r="D665" s="14" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="E665" s="14" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="F665" s="14" t="s">
-        <v>1854</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.3">
@@ -18547,13 +18547,13 @@
         <v>342</v>
       </c>
       <c r="D666" s="14" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="E666" s="14" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="F666" s="14" t="s">
-        <v>1855</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="667" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -18562,13 +18562,13 @@
         <v>345</v>
       </c>
       <c r="D667" s="14" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="E667" s="14" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="F667" s="14" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.3">
@@ -18577,13 +18577,13 @@
         <v>349</v>
       </c>
       <c r="D668" s="14" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="E668" s="14" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="F668" s="14" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="669" spans="1:6" x14ac:dyDescent="0.3">
@@ -18592,13 +18592,13 @@
         <v>366</v>
       </c>
       <c r="D669" s="14" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="E669" s="14" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="F669" s="14" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.3">
@@ -18607,13 +18607,13 @@
         <v>419</v>
       </c>
       <c r="D670" s="14" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="E670" s="14" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="F670" s="14" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="671" spans="1:6" x14ac:dyDescent="0.3">
@@ -18624,13 +18624,13 @@
         <v>440</v>
       </c>
       <c r="D671" s="14" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="E671" s="14" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="F671" s="14" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.3">
@@ -18641,13 +18641,13 @@
         <v>445</v>
       </c>
       <c r="D672" s="14" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="E672" s="14" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="F672" s="14" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.3">
@@ -18658,13 +18658,13 @@
         <v>450</v>
       </c>
       <c r="D673" s="14" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="E673" s="14" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="F673" s="14" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.3">
@@ -18673,13 +18673,13 @@
         <v>470</v>
       </c>
       <c r="D674" s="14" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="E674" s="14" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="F674" s="14" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="675" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -18688,13 +18688,13 @@
         <v>487</v>
       </c>
       <c r="D675" s="14" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="E675" s="14" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="F675" s="14" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.3">
@@ -18703,13 +18703,13 @@
         <v>490</v>
       </c>
       <c r="D676" s="14" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="E676" s="14" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="F676" s="14" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.3">
@@ -18718,13 +18718,13 @@
         <v>493</v>
       </c>
       <c r="D677" s="14" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="E677" s="14" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="F677" s="14" t="s">
-        <v>1866</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.3">
@@ -18735,13 +18735,13 @@
         <v>507</v>
       </c>
       <c r="D678" s="14" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="E678" s="14" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="F678" s="14" t="s">
-        <v>1867</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.3">
@@ -18750,13 +18750,13 @@
         <v>518</v>
       </c>
       <c r="D679" s="14" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="E679" s="14" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="F679" s="14" t="s">
-        <v>1868</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.3">
@@ -18767,13 +18767,13 @@
         <v>523</v>
       </c>
       <c r="D680" s="14" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="E680" s="14" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="F680" s="14" t="s">
-        <v>1869</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="681" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -18782,13 +18782,13 @@
         <v>526</v>
       </c>
       <c r="D681" s="14" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="E681" s="14" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="F681" s="14" t="s">
-        <v>1870</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.3">
@@ -18797,13 +18797,13 @@
         <v>531</v>
       </c>
       <c r="D682" s="14" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="E682" s="14" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="F682" s="14" t="s">
-        <v>1871</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.3">
@@ -18814,13 +18814,13 @@
         <v>536</v>
       </c>
       <c r="D683" s="14" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="E683" s="14" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="F683" s="14" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="684" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -18829,13 +18829,13 @@
         <v>540</v>
       </c>
       <c r="D684" s="14" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="E684" s="14" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="F684" s="14" t="s">
-        <v>1873</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="0.3">
@@ -18844,13 +18844,13 @@
         <v>545</v>
       </c>
       <c r="D685" s="14" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="E685" s="14" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="F685" s="14" t="s">
-        <v>1874</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="686" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -18861,13 +18861,13 @@
         <v>550</v>
       </c>
       <c r="D686" s="14" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="E686" s="14" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="F686" s="14" t="s">
-        <v>1875</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="687" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -18876,13 +18876,13 @@
         <v>553</v>
       </c>
       <c r="D687" s="14" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="E687" s="14" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="F687" s="14" t="s">
-        <v>1876</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.3">
@@ -18891,13 +18891,13 @@
         <v>563</v>
       </c>
       <c r="D688" s="14" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="E688" s="14" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="F688" s="14" t="s">
-        <v>1877</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="689" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -18906,13 +18906,13 @@
         <v>568</v>
       </c>
       <c r="D689" s="14" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="E689" s="14" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="F689" s="14" t="s">
-        <v>1878</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="690" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -18921,13 +18921,13 @@
         <v>572</v>
       </c>
       <c r="D690" s="14" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="E690" s="14" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="F690" s="14" t="s">
-        <v>1879</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="691" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -18936,13 +18936,13 @@
         <v>575</v>
       </c>
       <c r="D691" s="14" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="E691" s="14" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="F691" s="14" t="s">
-        <v>1880</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="692" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -18951,13 +18951,13 @@
         <v>584</v>
       </c>
       <c r="D692" s="14" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="E692" s="14" t="s">
-        <v>1810</v>
+        <v>2569</v>
       </c>
       <c r="F692" s="14" t="s">
-        <v>1881</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="693" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -18969,10 +18969,10 @@
         <v>159</v>
       </c>
       <c r="E693" s="14" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
       <c r="F693" s="14" t="s">
-        <v>1882</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="694" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -18981,13 +18981,13 @@
         <v>606</v>
       </c>
       <c r="D694" s="14" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="E694" s="14" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
       <c r="F694" s="14" t="s">
-        <v>1883</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="695" spans="1:6" x14ac:dyDescent="0.3">
@@ -18998,13 +18998,13 @@
         <v>652</v>
       </c>
       <c r="D695" s="14" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="E695" s="14" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="F695" s="14" t="s">
-        <v>1884</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="696" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -19013,13 +19013,13 @@
         <v>655</v>
       </c>
       <c r="D696" s="14" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="E696" s="14" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="F696" s="14" t="s">
-        <v>1885</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="697" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -19028,13 +19028,13 @@
         <v>658</v>
       </c>
       <c r="D697" s="14" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="E697" s="14" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
       <c r="F697" s="14" t="s">
-        <v>1886</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="698" spans="1:6" x14ac:dyDescent="0.3">
@@ -19043,13 +19043,13 @@
         <v>661</v>
       </c>
       <c r="D698" s="14" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="E698" s="14" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
       <c r="F698" s="14" t="s">
-        <v>1887</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="699" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -19058,30 +19058,30 @@
         <v>671</v>
       </c>
       <c r="D699" s="14" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="E699" s="14" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
       <c r="F699" s="14" t="s">
-        <v>1888</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="700" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A700" s="24" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="C700" s="13">
         <v>692</v>
       </c>
       <c r="D700" s="14" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="E700" s="14" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="F700" s="14" t="s">
-        <v>1889</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="701" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -19093,10 +19093,10 @@
         <v>1031</v>
       </c>
       <c r="E701" s="14" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F701" s="14" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="702" spans="1:6" x14ac:dyDescent="0.3">
@@ -19108,10 +19108,10 @@
         <v>1032</v>
       </c>
       <c r="E702" s="14" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F702" s="14" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="703" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19124,18 +19124,18 @@
         <v>1033</v>
       </c>
       <c r="E703" s="40" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="F703" s="40" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="704" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A704" s="15" t="s">
-        <v>1890</v>
+        <v>1886</v>
       </c>
       <c r="B704" s="16" t="s">
-        <v>1891</v>
+        <v>1887</v>
       </c>
       <c r="C704" s="16"/>
       <c r="D704" s="17"/>
@@ -19150,13 +19150,13 @@
         <v>43</v>
       </c>
       <c r="D705" s="14" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="E705" s="14" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="F705" s="14" t="s">
-        <v>1902</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.3">
@@ -19167,13 +19167,13 @@
         <v>48</v>
       </c>
       <c r="D706" s="14" t="s">
-        <v>1893</v>
+        <v>1889</v>
       </c>
       <c r="E706" s="14" t="s">
-        <v>1898</v>
+        <v>1894</v>
       </c>
       <c r="F706" s="14" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="707" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -19184,13 +19184,13 @@
         <v>53</v>
       </c>
       <c r="D707" s="14" t="s">
-        <v>1894</v>
+        <v>1890</v>
       </c>
       <c r="E707" s="14" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="F707" s="14" t="s">
-        <v>1904</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="708" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -19199,13 +19199,13 @@
         <v>74</v>
       </c>
       <c r="D708" s="14" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
       <c r="E708" s="14" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="F708" s="14" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="709" spans="1:6" x14ac:dyDescent="0.3">
@@ -19214,37 +19214,37 @@
         <v>77</v>
       </c>
       <c r="D709" s="14" t="s">
-        <v>1896</v>
+        <v>1892</v>
       </c>
       <c r="E709" s="14" t="s">
-        <v>1901</v>
+        <v>1897</v>
       </c>
       <c r="F709" s="14" t="s">
-        <v>1906</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="710" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A710" s="26" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="B710" s="27"/>
       <c r="C710" s="27">
         <v>92</v>
       </c>
       <c r="D710" s="28" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="E710" s="28" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="F710" s="28" t="s">
-        <v>1889</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="711" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A711" s="22"/>
       <c r="B711" s="22" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="C711" s="22"/>
       <c r="D711" s="23"/>
@@ -19257,13 +19257,13 @@
         <v>6</v>
       </c>
       <c r="D712" s="14" t="s">
-        <v>1908</v>
+        <v>1904</v>
       </c>
       <c r="E712" s="14" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
       <c r="F712" s="14" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="713" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -19272,13 +19272,13 @@
         <v>93</v>
       </c>
       <c r="D713" s="14" t="s">
-        <v>1909</v>
+        <v>1905</v>
       </c>
       <c r="E713" s="14" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
       <c r="F713" s="14" t="s">
-        <v>1933</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="714" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -19287,13 +19287,13 @@
         <v>98</v>
       </c>
       <c r="D714" s="14" t="s">
-        <v>1910</v>
+        <v>1906</v>
       </c>
       <c r="E714" s="14" t="s">
-        <v>1922</v>
+        <v>1918</v>
       </c>
       <c r="F714" s="14" t="s">
-        <v>1934</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="715" spans="1:6" x14ac:dyDescent="0.3">
@@ -19302,13 +19302,13 @@
         <v>103</v>
       </c>
       <c r="D715" s="14" t="s">
-        <v>1911</v>
+        <v>1907</v>
       </c>
       <c r="E715" s="14" t="s">
-        <v>1923</v>
+        <v>1919</v>
       </c>
       <c r="F715" s="14" t="s">
-        <v>1935</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="716" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -19317,13 +19317,13 @@
         <v>111</v>
       </c>
       <c r="D716" s="14" t="s">
-        <v>1912</v>
+        <v>1908</v>
       </c>
       <c r="E716" s="14" t="s">
-        <v>1924</v>
+        <v>1920</v>
       </c>
       <c r="F716" s="14" t="s">
-        <v>1936</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="717" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -19332,13 +19332,13 @@
         <v>116</v>
       </c>
       <c r="D717" s="14" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
       <c r="E717" s="14" t="s">
-        <v>1925</v>
+        <v>1921</v>
       </c>
       <c r="F717" s="14" t="s">
-        <v>1937</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="718" spans="1:6" x14ac:dyDescent="0.3">
@@ -19347,13 +19347,13 @@
         <v>120</v>
       </c>
       <c r="D718" s="14" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="E718" s="14" t="s">
-        <v>1926</v>
+        <v>1922</v>
       </c>
       <c r="F718" s="14" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="719" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -19362,13 +19362,13 @@
         <v>129</v>
       </c>
       <c r="D719" s="14" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
       <c r="E719" s="14" t="s">
-        <v>1927</v>
+        <v>1923</v>
       </c>
       <c r="F719" s="14" t="s">
-        <v>1939</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="720" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -19377,13 +19377,13 @@
         <v>138</v>
       </c>
       <c r="D720" s="14" t="s">
-        <v>1916</v>
+        <v>1912</v>
       </c>
       <c r="E720" s="14" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
       <c r="F720" s="14" t="s">
-        <v>1940</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="721" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -19392,13 +19392,13 @@
         <v>142</v>
       </c>
       <c r="D721" s="14" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
       <c r="E721" s="14" t="s">
-        <v>1929</v>
+        <v>1925</v>
       </c>
       <c r="F721" s="14" t="s">
-        <v>1941</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="722" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -19407,13 +19407,13 @@
         <v>147</v>
       </c>
       <c r="D722" s="14" t="s">
-        <v>1918</v>
+        <v>1914</v>
       </c>
       <c r="E722" s="14" t="s">
-        <v>1930</v>
+        <v>1926</v>
       </c>
       <c r="F722" s="14" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="723" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19423,21 +19423,21 @@
         <v>152</v>
       </c>
       <c r="D723" s="40" t="s">
-        <v>1919</v>
+        <v>1915</v>
       </c>
       <c r="E723" s="40" t="s">
-        <v>1931</v>
+        <v>1927</v>
       </c>
       <c r="F723" s="40" t="s">
-        <v>1943</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="724" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A724" s="15" t="s">
-        <v>1945</v>
+        <v>1941</v>
       </c>
       <c r="B724" s="16" t="s">
-        <v>1944</v>
+        <v>1940</v>
       </c>
       <c r="C724" s="16"/>
       <c r="D724" s="17"/>
@@ -19453,10 +19453,10 @@
         <v>329</v>
       </c>
       <c r="E725" s="14" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="F725" s="14" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="726" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -19465,13 +19465,13 @@
         <v>11</v>
       </c>
       <c r="D726" s="14" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="E726" s="14" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="F726" s="14" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="727" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -19480,13 +19480,13 @@
         <v>105</v>
       </c>
       <c r="D727" s="14" t="s">
+        <v>1942</v>
+      </c>
+      <c r="E727" s="14" t="s">
         <v>1946</v>
       </c>
-      <c r="E727" s="14" t="s">
-        <v>1950</v>
-      </c>
       <c r="F727" s="14" t="s">
-        <v>1955</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="728" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -19495,13 +19495,13 @@
         <v>108</v>
       </c>
       <c r="D728" s="14" t="s">
+        <v>1943</v>
+      </c>
+      <c r="E728" s="14" t="s">
         <v>1947</v>
       </c>
-      <c r="E728" s="14" t="s">
-        <v>1951</v>
-      </c>
       <c r="F728" s="14" t="s">
-        <v>1956</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="729" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -19510,13 +19510,13 @@
         <v>112</v>
       </c>
       <c r="D729" s="14" t="s">
+        <v>1944</v>
+      </c>
+      <c r="E729" s="14" t="s">
         <v>1948</v>
       </c>
-      <c r="E729" s="14" t="s">
-        <v>1952</v>
-      </c>
       <c r="F729" s="14" t="s">
-        <v>1957</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="730" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -19525,13 +19525,13 @@
         <v>131</v>
       </c>
       <c r="D730" s="14" t="s">
+        <v>1945</v>
+      </c>
+      <c r="E730" s="14" t="s">
         <v>1949</v>
       </c>
-      <c r="E730" s="14" t="s">
-        <v>1953</v>
-      </c>
       <c r="F730" s="14" t="s">
-        <v>1958</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="731" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19540,21 +19540,21 @@
         <v>139</v>
       </c>
       <c r="D731" s="14" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="E731" s="14" t="s">
-        <v>1954</v>
+        <v>1950</v>
       </c>
       <c r="F731" s="14" t="s">
-        <v>1959</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="732" spans="1:6" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A732" s="15" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B732" s="16" t="s">
         <v>1960</v>
-      </c>
-      <c r="B732" s="16" t="s">
-        <v>1964</v>
       </c>
       <c r="C732" s="16"/>
       <c r="D732" s="17"/>
@@ -19570,10 +19570,10 @@
         <v>329</v>
       </c>
       <c r="E733" s="14" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="F733" s="14" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="734" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -19582,13 +19582,13 @@
         <v>11</v>
       </c>
       <c r="D734" s="14" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="E734" s="14" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="F734" s="14" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="735" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -19600,10 +19600,10 @@
         <v>331</v>
       </c>
       <c r="E735" s="14" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F735" s="14" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="736" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -19612,13 +19612,13 @@
         <v>105</v>
       </c>
       <c r="D736" s="14" t="s">
-        <v>1965</v>
+        <v>1961</v>
       </c>
       <c r="E736" s="14" t="s">
-        <v>1966</v>
+        <v>1962</v>
       </c>
       <c r="F736" s="14" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="737" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -19627,13 +19627,13 @@
         <v>108</v>
       </c>
       <c r="D737" s="14" t="s">
+        <v>1943</v>
+      </c>
+      <c r="E737" s="14" t="s">
         <v>1947</v>
       </c>
-      <c r="E737" s="14" t="s">
-        <v>1951</v>
-      </c>
       <c r="F737" s="14" t="s">
-        <v>1956</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="738" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -19642,13 +19642,13 @@
         <v>112</v>
       </c>
       <c r="D738" s="14" t="s">
+        <v>1944</v>
+      </c>
+      <c r="E738" s="14" t="s">
         <v>1948</v>
       </c>
-      <c r="E738" s="14" t="s">
-        <v>1952</v>
-      </c>
       <c r="F738" s="14" t="s">
-        <v>1957</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="739" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -19657,13 +19657,13 @@
         <v>131</v>
       </c>
       <c r="D739" s="14" t="s">
+        <v>1945</v>
+      </c>
+      <c r="E739" s="14" t="s">
         <v>1949</v>
       </c>
-      <c r="E739" s="14" t="s">
-        <v>1953</v>
-      </c>
       <c r="F739" s="14" t="s">
-        <v>1958</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="740" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -19673,21 +19673,21 @@
         <v>139</v>
       </c>
       <c r="D740" s="40" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
       <c r="E740" s="40" t="s">
-        <v>1962</v>
+        <v>1958</v>
       </c>
       <c r="F740" s="40" t="s">
-        <v>1963</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="741" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A741" s="15" t="s">
-        <v>1968</v>
+        <v>1964</v>
       </c>
       <c r="B741" s="16" t="s">
-        <v>1969</v>
+        <v>1965</v>
       </c>
       <c r="C741" s="16"/>
       <c r="D741" s="17"/>
@@ -19700,13 +19700,13 @@
         <v>57</v>
       </c>
       <c r="D742" s="14" t="s">
-        <v>1970</v>
+        <v>1966</v>
       </c>
       <c r="E742" s="14" t="s">
-        <v>1987</v>
+        <v>1983</v>
       </c>
       <c r="F742" s="14" t="s">
-        <v>2000</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="743" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -19715,13 +19715,13 @@
         <v>88</v>
       </c>
       <c r="D743" s="14" t="s">
-        <v>1971</v>
+        <v>1967</v>
       </c>
       <c r="E743" s="14" t="s">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="F743" s="14" t="s">
-        <v>2014</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="744" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -19730,13 +19730,13 @@
         <v>93</v>
       </c>
       <c r="D744" s="14" t="s">
-        <v>1972</v>
+        <v>1968</v>
       </c>
       <c r="E744" s="14" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="F744" s="14" t="s">
-        <v>2016</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.3">
@@ -19747,13 +19747,13 @@
         <v>100</v>
       </c>
       <c r="D745" s="14" t="s">
-        <v>1973</v>
+        <v>1969</v>
       </c>
       <c r="E745" s="14" t="s">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="F745" s="14" t="s">
-        <v>2018</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="746" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -19764,13 +19764,13 @@
         <v>161</v>
       </c>
       <c r="D746" s="14" t="s">
-        <v>1974</v>
+        <v>1970</v>
       </c>
       <c r="E746" s="14" t="s">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="F746" s="14" t="s">
-        <v>2001</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="747" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -19781,13 +19781,13 @@
         <v>166</v>
       </c>
       <c r="D747" s="14" t="s">
-        <v>1975</v>
+        <v>1971</v>
       </c>
       <c r="E747" s="14" t="s">
-        <v>1989</v>
+        <v>1985</v>
       </c>
       <c r="F747" s="14" t="s">
-        <v>2002</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="748" spans="1:6" x14ac:dyDescent="0.3">
@@ -19796,13 +19796,13 @@
         <v>172</v>
       </c>
       <c r="D748" s="14" t="s">
-        <v>1976</v>
+        <v>1972</v>
       </c>
       <c r="E748" s="14" t="s">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="F748" s="14" t="s">
-        <v>2003</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="749" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -19811,13 +19811,13 @@
         <v>176</v>
       </c>
       <c r="D749" s="14" t="s">
-        <v>1977</v>
+        <v>1973</v>
       </c>
       <c r="E749" s="14" t="s">
-        <v>1991</v>
+        <v>1987</v>
       </c>
       <c r="F749" s="14" t="s">
-        <v>2004</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.3">
@@ -19828,13 +19828,13 @@
         <v>181</v>
       </c>
       <c r="D750" s="14" t="s">
-        <v>1978</v>
+        <v>1974</v>
       </c>
       <c r="E750" s="14" t="s">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="F750" s="14" t="s">
-        <v>2005</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="751" spans="1:6" x14ac:dyDescent="0.3">
@@ -19843,13 +19843,13 @@
         <v>186</v>
       </c>
       <c r="D751" s="14" t="s">
-        <v>1979</v>
+        <v>1975</v>
       </c>
       <c r="E751" s="14" t="s">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="F751" s="14" t="s">
-        <v>2006</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="752" spans="1:6" x14ac:dyDescent="0.3">
@@ -19858,13 +19858,13 @@
         <v>191</v>
       </c>
       <c r="D752" s="14" t="s">
-        <v>1980</v>
+        <v>1976</v>
       </c>
       <c r="E752" s="14" t="s">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="F752" s="14" t="s">
-        <v>2007</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="753" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -19873,13 +19873,13 @@
         <v>194</v>
       </c>
       <c r="D753" s="14" t="s">
-        <v>1981</v>
+        <v>1977</v>
       </c>
       <c r="E753" s="14" t="s">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="F753" s="14" t="s">
-        <v>2020</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="754" spans="1:6" x14ac:dyDescent="0.3">
@@ -19890,13 +19890,13 @@
         <v>199</v>
       </c>
       <c r="D754" s="14" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="E754" s="14" t="s">
-        <v>1995</v>
+        <v>1991</v>
       </c>
       <c r="F754" s="14" t="s">
-        <v>2008</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="755" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -19905,13 +19905,13 @@
         <v>204</v>
       </c>
       <c r="D755" s="14" t="s">
-        <v>1983</v>
+        <v>1979</v>
       </c>
       <c r="E755" s="14" t="s">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="F755" s="14" t="s">
-        <v>2009</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="756" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -19923,10 +19923,10 @@
         <v>159</v>
       </c>
       <c r="E756" s="14" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
       <c r="F756" s="14" t="s">
-        <v>1882</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="757" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -19935,13 +19935,13 @@
         <v>218</v>
       </c>
       <c r="D757" s="14" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="E757" s="14" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
       <c r="F757" s="14" t="s">
-        <v>1883</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="758" spans="1:6" x14ac:dyDescent="0.3">
@@ -19952,13 +19952,13 @@
         <v>264</v>
       </c>
       <c r="D758" s="14" t="s">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="E758" s="14" t="s">
-        <v>1997</v>
+        <v>1993</v>
       </c>
       <c r="F758" s="14" t="s">
-        <v>2010</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="759" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -19967,13 +19967,13 @@
         <v>267</v>
       </c>
       <c r="D759" s="14" t="s">
-        <v>1985</v>
+        <v>1981</v>
       </c>
       <c r="E759" s="14" t="s">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="F759" s="14" t="s">
-        <v>2011</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="760" spans="1:6" x14ac:dyDescent="0.3">
@@ -19982,13 +19982,13 @@
         <v>270</v>
       </c>
       <c r="D760" s="14" t="s">
-        <v>1986</v>
+        <v>1982</v>
       </c>
       <c r="E760" s="14" t="s">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="F760" s="14" t="s">
-        <v>2012</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="761" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -19997,30 +19997,30 @@
         <v>280</v>
       </c>
       <c r="D761" s="14" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="E761" s="14" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
       <c r="F761" s="14" t="s">
-        <v>1888</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="762" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A762" s="24" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="C762" s="13">
         <v>301</v>
       </c>
       <c r="D762" s="14" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="E762" s="14" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="F762" s="14" t="s">
-        <v>1889</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="763" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -20032,10 +20032,10 @@
         <v>1031</v>
       </c>
       <c r="E763" s="14" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F763" s="14" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="764" spans="1:6" x14ac:dyDescent="0.3">
@@ -20047,10 +20047,10 @@
         <v>1032</v>
       </c>
       <c r="E764" s="14" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F764" s="14" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="765" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -20063,18 +20063,18 @@
         <v>1033</v>
       </c>
       <c r="E765" s="40" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="F765" s="40" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="766" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A766" s="15" t="s">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="B766" s="16" t="s">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="C766" s="16"/>
       <c r="D766" s="17"/>
@@ -20089,13 +20089,13 @@
         <v>43</v>
       </c>
       <c r="D767" s="14" t="s">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="E767" s="14" t="s">
-        <v>2091</v>
+        <v>2087</v>
       </c>
       <c r="F767" s="14" t="s">
-        <v>2155</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="768" spans="1:6" x14ac:dyDescent="0.3">
@@ -20106,13 +20106,13 @@
         <v>48</v>
       </c>
       <c r="D768" s="14" t="s">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="E768" s="14" t="s">
-        <v>2092</v>
+        <v>2088</v>
       </c>
       <c r="F768" s="14" t="s">
-        <v>2156</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="769" spans="1:6" x14ac:dyDescent="0.3">
@@ -20121,13 +20121,13 @@
         <v>51</v>
       </c>
       <c r="D769" s="14" t="s">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="E769" s="14" t="s">
-        <v>2093</v>
+        <v>2089</v>
       </c>
       <c r="F769" s="14" t="s">
-        <v>2157</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="770" spans="1:6" x14ac:dyDescent="0.3">
@@ -20138,13 +20138,13 @@
         <v>56</v>
       </c>
       <c r="D770" s="14" t="s">
-        <v>2026</v>
+        <v>2022</v>
       </c>
       <c r="E770" s="14" t="s">
-        <v>2094</v>
+        <v>2090</v>
       </c>
       <c r="F770" s="14" t="s">
-        <v>2158</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="771" spans="1:6" x14ac:dyDescent="0.3">
@@ -20153,13 +20153,13 @@
         <v>59</v>
       </c>
       <c r="D771" s="14" t="s">
-        <v>2027</v>
+        <v>2023</v>
       </c>
       <c r="E771" s="14" t="s">
-        <v>2095</v>
+        <v>2091</v>
       </c>
       <c r="F771" s="14" t="s">
-        <v>2159</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="772" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -20168,13 +20168,13 @@
         <v>62</v>
       </c>
       <c r="D772" s="14" t="s">
-        <v>2028</v>
+        <v>2024</v>
       </c>
       <c r="E772" s="14" t="s">
-        <v>2096</v>
+        <v>2092</v>
       </c>
       <c r="F772" s="14" t="s">
-        <v>2160</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="773" spans="1:6" x14ac:dyDescent="0.3">
@@ -20183,30 +20183,30 @@
         <v>77</v>
       </c>
       <c r="D773" s="14" t="s">
-        <v>2029</v>
+        <v>2025</v>
       </c>
       <c r="E773" s="14" t="s">
-        <v>2097</v>
+        <v>2093</v>
       </c>
       <c r="F773" s="14" t="s">
-        <v>2161</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="774" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A774" s="24" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="C774" s="13">
         <v>120</v>
       </c>
       <c r="D774" s="14" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="E774" s="14" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="F774" s="14" t="s">
-        <v>1889</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="775" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -20215,13 +20215,13 @@
         <v>135</v>
       </c>
       <c r="D775" s="14" t="s">
-        <v>2030</v>
+        <v>2026</v>
       </c>
       <c r="E775" s="14" t="s">
-        <v>2098</v>
+        <v>2094</v>
       </c>
       <c r="F775" s="14" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="776" spans="1:6" x14ac:dyDescent="0.3">
@@ -20230,13 +20230,13 @@
         <v>144</v>
       </c>
       <c r="D776" s="14" t="s">
-        <v>2031</v>
+        <v>2027</v>
       </c>
       <c r="E776" s="14" t="s">
-        <v>2099</v>
+        <v>2095</v>
       </c>
       <c r="F776" s="14" t="s">
-        <v>2163</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="777" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -20245,30 +20245,30 @@
         <v>153</v>
       </c>
       <c r="D777" s="14" t="s">
-        <v>2032</v>
+        <v>2028</v>
       </c>
       <c r="E777" s="14" t="s">
-        <v>2100</v>
+        <v>2096</v>
       </c>
       <c r="F777" s="14" t="s">
-        <v>2164</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="778" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A778" s="24" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="C778" s="13">
         <v>177</v>
       </c>
       <c r="D778" s="14" t="s">
-        <v>2033</v>
+        <v>2029</v>
       </c>
       <c r="E778" s="14" t="s">
-        <v>2101</v>
+        <v>2097</v>
       </c>
       <c r="F778" s="14" t="s">
-        <v>2165</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="779" spans="1:6" x14ac:dyDescent="0.3">
@@ -20279,13 +20279,13 @@
         <v>206</v>
       </c>
       <c r="D779" s="14" t="s">
-        <v>2034</v>
+        <v>2030</v>
       </c>
       <c r="E779" s="14" t="s">
-        <v>2102</v>
+        <v>2098</v>
       </c>
       <c r="F779" s="14" t="s">
-        <v>2166</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="780" spans="1:6" x14ac:dyDescent="0.3">
@@ -20296,13 +20296,13 @@
         <v>315</v>
       </c>
       <c r="D780" s="14" t="s">
-        <v>2035</v>
+        <v>2031</v>
       </c>
       <c r="E780" s="14" t="s">
-        <v>2103</v>
+        <v>2099</v>
       </c>
       <c r="F780" s="14" t="s">
-        <v>2167</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="781" spans="1:6" x14ac:dyDescent="0.3">
@@ -20311,13 +20311,13 @@
         <v>320</v>
       </c>
       <c r="D781" s="14" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="E781" s="14" t="s">
-        <v>2104</v>
+        <v>2100</v>
       </c>
       <c r="F781" s="14" t="s">
-        <v>2168</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="782" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -20328,13 +20328,13 @@
         <v>326</v>
       </c>
       <c r="D782" s="14" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="E782" s="14" t="s">
-        <v>2105</v>
+        <v>2101</v>
       </c>
       <c r="F782" s="14" t="s">
-        <v>2169</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="783" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -20343,13 +20343,13 @@
         <v>329</v>
       </c>
       <c r="D783" s="14" t="s">
-        <v>2038</v>
+        <v>2034</v>
       </c>
       <c r="E783" s="14" t="s">
-        <v>2106</v>
+        <v>2102</v>
       </c>
       <c r="F783" s="14" t="s">
-        <v>2170</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="784" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -20358,13 +20358,13 @@
         <v>332</v>
       </c>
       <c r="D784" s="14" t="s">
-        <v>2039</v>
+        <v>2035</v>
       </c>
       <c r="E784" s="14" t="s">
-        <v>2107</v>
+        <v>2103</v>
       </c>
       <c r="F784" s="14" t="s">
-        <v>2171</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="785" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -20375,13 +20375,13 @@
         <v>338</v>
       </c>
       <c r="D785" s="14" t="s">
-        <v>2040</v>
+        <v>2036</v>
       </c>
       <c r="E785" s="14" t="s">
-        <v>2108</v>
+        <v>2104</v>
       </c>
       <c r="F785" s="14" t="s">
-        <v>2172</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="786" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -20390,13 +20390,13 @@
         <v>348</v>
       </c>
       <c r="D786" s="14" t="s">
-        <v>2041</v>
+        <v>2037</v>
       </c>
       <c r="E786" s="14" t="s">
-        <v>2109</v>
+        <v>2105</v>
       </c>
       <c r="F786" s="14" t="s">
-        <v>2173</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="787" spans="1:6" x14ac:dyDescent="0.3">
@@ -20405,13 +20405,13 @@
         <v>351</v>
       </c>
       <c r="D787" s="14" t="s">
-        <v>2042</v>
+        <v>2038</v>
       </c>
       <c r="E787" s="14" t="s">
-        <v>2110</v>
+        <v>2106</v>
       </c>
       <c r="F787" s="14" t="s">
-        <v>2174</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="788" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -20422,13 +20422,13 @@
         <v>361</v>
       </c>
       <c r="D788" s="14" t="s">
-        <v>2043</v>
+        <v>2039</v>
       </c>
       <c r="E788" s="14" t="s">
-        <v>2111</v>
+        <v>2107</v>
       </c>
       <c r="F788" s="14" t="s">
-        <v>2175</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="789" spans="1:6" x14ac:dyDescent="0.3">
@@ -20437,13 +20437,13 @@
         <v>364</v>
       </c>
       <c r="D789" s="14" t="s">
-        <v>1911</v>
+        <v>1907</v>
       </c>
       <c r="E789" s="14" t="s">
-        <v>1923</v>
+        <v>1919</v>
       </c>
       <c r="F789" s="14" t="s">
-        <v>1935</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="790" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -20452,13 +20452,13 @@
         <v>395</v>
       </c>
       <c r="D790" s="14" t="s">
-        <v>2044</v>
+        <v>2040</v>
       </c>
       <c r="E790" s="14" t="s">
-        <v>2112</v>
+        <v>2108</v>
       </c>
       <c r="F790" s="14" t="s">
-        <v>2176</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="791" spans="1:6" x14ac:dyDescent="0.3">
@@ -20469,13 +20469,13 @@
         <v>425</v>
       </c>
       <c r="D791" s="14" t="s">
-        <v>2045</v>
+        <v>2041</v>
       </c>
       <c r="E791" s="14" t="s">
-        <v>2113</v>
+        <v>2109</v>
       </c>
       <c r="F791" s="14" t="s">
-        <v>2177</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="792" spans="1:6" x14ac:dyDescent="0.3">
@@ -20484,13 +20484,13 @@
         <v>430</v>
       </c>
       <c r="D792" s="14" t="s">
-        <v>2046</v>
+        <v>2042</v>
       </c>
       <c r="E792" s="14" t="s">
-        <v>2114</v>
+        <v>2110</v>
       </c>
       <c r="F792" s="14" t="s">
-        <v>2178</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="793" spans="1:6" x14ac:dyDescent="0.3">
@@ -20499,13 +20499,13 @@
         <v>434</v>
       </c>
       <c r="D793" s="14" t="s">
-        <v>2047</v>
+        <v>2043</v>
       </c>
       <c r="E793" s="14" t="s">
-        <v>2115</v>
+        <v>2111</v>
       </c>
       <c r="F793" s="14" t="s">
-        <v>2179</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="794" spans="1:6" x14ac:dyDescent="0.3">
@@ -20516,13 +20516,13 @@
         <v>440</v>
       </c>
       <c r="D794" s="14" t="s">
-        <v>2048</v>
+        <v>2044</v>
       </c>
       <c r="E794" s="14" t="s">
-        <v>2116</v>
+        <v>2112</v>
       </c>
       <c r="F794" s="14" t="s">
-        <v>2180</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="795" spans="1:6" x14ac:dyDescent="0.3">
@@ -20531,13 +20531,13 @@
         <v>445</v>
       </c>
       <c r="D795" s="14" t="s">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="E795" s="14" t="s">
-        <v>2117</v>
+        <v>2113</v>
       </c>
       <c r="F795" s="14" t="s">
-        <v>2181</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="796" spans="1:6" x14ac:dyDescent="0.3">
@@ -20546,13 +20546,13 @@
         <v>448</v>
       </c>
       <c r="D796" s="14" t="s">
-        <v>2050</v>
+        <v>2046</v>
       </c>
       <c r="E796" s="14" t="s">
-        <v>2118</v>
+        <v>2114</v>
       </c>
       <c r="F796" s="14" t="s">
-        <v>2182</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="797" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -20563,13 +20563,13 @@
         <v>458</v>
       </c>
       <c r="D797" s="14" t="s">
-        <v>2051</v>
+        <v>2047</v>
       </c>
       <c r="E797" s="14" t="s">
-        <v>2119</v>
+        <v>2115</v>
       </c>
       <c r="F797" s="14" t="s">
-        <v>2183</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="798" spans="1:6" x14ac:dyDescent="0.3">
@@ -20578,13 +20578,13 @@
         <v>461</v>
       </c>
       <c r="D798" s="14" t="s">
-        <v>2052</v>
+        <v>2048</v>
       </c>
       <c r="E798" s="14" t="s">
-        <v>2219</v>
+        <v>2215</v>
       </c>
       <c r="F798" s="14" t="s">
-        <v>2220</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="799" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -20593,13 +20593,13 @@
         <v>464</v>
       </c>
       <c r="D799" s="14" t="s">
-        <v>2053</v>
+        <v>2049</v>
       </c>
       <c r="E799" s="14" t="s">
-        <v>2120</v>
+        <v>2116</v>
       </c>
       <c r="F799" s="14" t="s">
-        <v>2184</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="800" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -20608,13 +20608,13 @@
         <v>467</v>
       </c>
       <c r="D800" s="14" t="s">
-        <v>2054</v>
+        <v>2050</v>
       </c>
       <c r="E800" s="14" t="s">
-        <v>2121</v>
+        <v>2117</v>
       </c>
       <c r="F800" s="14" t="s">
-        <v>2185</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="801" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -20623,13 +20623,13 @@
         <v>470</v>
       </c>
       <c r="D801" s="14" t="s">
-        <v>2055</v>
+        <v>2051</v>
       </c>
       <c r="E801" s="14" t="s">
-        <v>2122</v>
+        <v>2118</v>
       </c>
       <c r="F801" s="14" t="s">
-        <v>2186</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="802" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -20638,13 +20638,13 @@
         <v>475</v>
       </c>
       <c r="D802" s="14" t="s">
-        <v>2056</v>
+        <v>2052</v>
       </c>
       <c r="E802" s="14" t="s">
-        <v>2123</v>
+        <v>2119</v>
       </c>
       <c r="F802" s="14" t="s">
-        <v>2187</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="803" spans="1:6" x14ac:dyDescent="0.3">
@@ -20653,13 +20653,13 @@
         <v>480</v>
       </c>
       <c r="D803" s="14" t="s">
-        <v>2057</v>
+        <v>2053</v>
       </c>
       <c r="E803" s="14" t="s">
-        <v>2124</v>
+        <v>2120</v>
       </c>
       <c r="F803" s="14" t="s">
-        <v>2188</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="804" spans="1:6" x14ac:dyDescent="0.3">
@@ -20670,13 +20670,13 @@
         <v>485</v>
       </c>
       <c r="D804" s="14" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
       <c r="E804" s="14" t="s">
-        <v>2125</v>
+        <v>2121</v>
       </c>
       <c r="F804" s="14" t="s">
-        <v>2189</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="805" spans="1:6" x14ac:dyDescent="0.3">
@@ -20687,13 +20687,13 @@
         <v>495</v>
       </c>
       <c r="D805" s="14" t="s">
-        <v>2059</v>
+        <v>2055</v>
       </c>
       <c r="E805" s="14" t="s">
-        <v>2126</v>
+        <v>2122</v>
       </c>
       <c r="F805" s="14" t="s">
-        <v>2190</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="806" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -20702,13 +20702,13 @@
         <v>498</v>
       </c>
       <c r="D806" s="14" t="s">
-        <v>2060</v>
+        <v>2056</v>
       </c>
       <c r="E806" s="14" t="s">
-        <v>2127</v>
+        <v>2123</v>
       </c>
       <c r="F806" s="14" t="s">
-        <v>2191</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="807" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -20717,13 +20717,13 @@
         <v>501</v>
       </c>
       <c r="D807" s="14" t="s">
-        <v>2061</v>
+        <v>2057</v>
       </c>
       <c r="E807" s="14" t="s">
-        <v>2128</v>
+        <v>2124</v>
       </c>
       <c r="F807" s="14" t="s">
-        <v>2192</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="808" spans="1:6" x14ac:dyDescent="0.3">
@@ -20732,13 +20732,13 @@
         <v>551</v>
       </c>
       <c r="D808" s="14" t="s">
-        <v>2062</v>
+        <v>2058</v>
       </c>
       <c r="E808" s="14" t="s">
-        <v>2129</v>
+        <v>2125</v>
       </c>
       <c r="F808" s="14" t="s">
-        <v>2193</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="809" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -20747,13 +20747,13 @@
         <v>554</v>
       </c>
       <c r="D809" s="14" t="s">
-        <v>2063</v>
+        <v>2059</v>
       </c>
       <c r="E809" s="14" t="s">
-        <v>2130</v>
+        <v>2126</v>
       </c>
       <c r="F809" s="14" t="s">
-        <v>2194</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="810" spans="1:6" x14ac:dyDescent="0.3">
@@ -20762,13 +20762,13 @@
         <v>589</v>
       </c>
       <c r="D810" s="14" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="E810" s="14" t="s">
-        <v>2104</v>
+        <v>2100</v>
       </c>
       <c r="F810" s="14" t="s">
-        <v>2168</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="811" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -20777,13 +20777,13 @@
         <v>594</v>
       </c>
       <c r="D811" s="14" t="s">
-        <v>2064</v>
+        <v>2060</v>
       </c>
       <c r="E811" s="14" t="s">
-        <v>2131</v>
+        <v>2127</v>
       </c>
       <c r="F811" s="14" t="s">
-        <v>2195</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="812" spans="1:6" x14ac:dyDescent="0.3">
@@ -20794,30 +20794,30 @@
         <v>603</v>
       </c>
       <c r="D812" s="14" t="s">
-        <v>2065</v>
+        <v>2061</v>
       </c>
       <c r="E812" s="14" t="s">
-        <v>2132</v>
+        <v>2128</v>
       </c>
       <c r="F812" s="14" t="s">
-        <v>2196</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="813" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A813" s="24" t="s">
-        <v>2067</v>
+        <v>2063</v>
       </c>
       <c r="C813" s="13">
         <v>609</v>
       </c>
       <c r="D813" s="14" t="s">
-        <v>2066</v>
+        <v>2062</v>
       </c>
       <c r="E813" s="14" t="s">
-        <v>2133</v>
+        <v>2129</v>
       </c>
       <c r="F813" s="14" t="s">
-        <v>2197</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="814" spans="1:6" x14ac:dyDescent="0.3">
@@ -20828,13 +20828,13 @@
         <v>650</v>
       </c>
       <c r="D814" s="14" t="s">
-        <v>2068</v>
+        <v>2064</v>
       </c>
       <c r="E814" s="14" t="s">
-        <v>2134</v>
+        <v>2130</v>
       </c>
       <c r="F814" s="14" t="s">
-        <v>2198</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="815" spans="1:6" x14ac:dyDescent="0.3">
@@ -20845,13 +20845,13 @@
         <v>655</v>
       </c>
       <c r="D815" s="14" t="s">
-        <v>2069</v>
+        <v>2065</v>
       </c>
       <c r="E815" s="14" t="s">
-        <v>2135</v>
+        <v>2131</v>
       </c>
       <c r="F815" s="14" t="s">
-        <v>2199</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="816" spans="1:6" x14ac:dyDescent="0.3">
@@ -20862,13 +20862,13 @@
         <v>776</v>
       </c>
       <c r="D816" s="14" t="s">
-        <v>2070</v>
+        <v>2066</v>
       </c>
       <c r="E816" s="14" t="s">
-        <v>2136</v>
+        <v>2132</v>
       </c>
       <c r="F816" s="14" t="s">
-        <v>2200</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="817" spans="1:6" x14ac:dyDescent="0.3">
@@ -20877,13 +20877,13 @@
         <v>781</v>
       </c>
       <c r="D817" s="14" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="E817" s="14" t="s">
-        <v>2137</v>
+        <v>2133</v>
       </c>
       <c r="F817" s="14" t="s">
-        <v>2201</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="818" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -20894,13 +20894,13 @@
         <v>791</v>
       </c>
       <c r="D818" s="14" t="s">
-        <v>2072</v>
+        <v>2068</v>
       </c>
       <c r="E818" s="14" t="s">
-        <v>2138</v>
+        <v>2134</v>
       </c>
       <c r="F818" s="14" t="s">
-        <v>2202</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="819" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -20909,13 +20909,13 @@
         <v>805</v>
       </c>
       <c r="D819" s="14" t="s">
-        <v>2073</v>
+        <v>2069</v>
       </c>
       <c r="E819" s="14" t="s">
-        <v>2139</v>
+        <v>2135</v>
       </c>
       <c r="F819" s="14" t="s">
-        <v>2203</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="820" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -20924,30 +20924,30 @@
         <v>808</v>
       </c>
       <c r="D820" s="14" t="s">
-        <v>2074</v>
+        <v>2070</v>
       </c>
       <c r="E820" s="14" t="s">
-        <v>2140</v>
+        <v>2136</v>
       </c>
       <c r="F820" s="14" t="s">
-        <v>2204</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="821" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A821" s="24" t="s">
-        <v>2076</v>
+        <v>2072</v>
       </c>
       <c r="C821" s="13">
         <v>817</v>
       </c>
       <c r="D821" s="14" t="s">
-        <v>2075</v>
+        <v>2071</v>
       </c>
       <c r="E821" s="14" t="s">
-        <v>2141</v>
+        <v>2137</v>
       </c>
       <c r="F821" s="14" t="s">
-        <v>2205</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="822" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -20958,13 +20958,13 @@
         <v>822</v>
       </c>
       <c r="D822" s="14" t="s">
-        <v>2077</v>
+        <v>2073</v>
       </c>
       <c r="E822" s="14" t="s">
-        <v>2142</v>
+        <v>2138</v>
       </c>
       <c r="F822" s="14" t="s">
-        <v>2206</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="823" spans="1:6" x14ac:dyDescent="0.3">
@@ -20973,30 +20973,30 @@
         <v>830</v>
       </c>
       <c r="D823" s="14" t="s">
-        <v>2078</v>
+        <v>2074</v>
       </c>
       <c r="E823" s="14" t="s">
-        <v>2143</v>
+        <v>2139</v>
       </c>
       <c r="F823" s="14" t="s">
-        <v>2207</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="824" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A824" s="24" t="s">
-        <v>2076</v>
+        <v>2072</v>
       </c>
       <c r="C824" s="13">
         <v>835</v>
       </c>
       <c r="D824" s="14" t="s">
-        <v>2079</v>
+        <v>2075</v>
       </c>
       <c r="E824" s="14" t="s">
-        <v>2144</v>
+        <v>2140</v>
       </c>
       <c r="F824" s="14" t="s">
-        <v>2208</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="825" spans="1:6" x14ac:dyDescent="0.3">
@@ -21005,13 +21005,13 @@
         <v>838</v>
       </c>
       <c r="D825" s="14" t="s">
-        <v>2080</v>
+        <v>2076</v>
       </c>
       <c r="E825" s="14" t="s">
-        <v>2145</v>
+        <v>2141</v>
       </c>
       <c r="F825" s="14" t="s">
-        <v>2209</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="826" spans="1:6" x14ac:dyDescent="0.3">
@@ -21020,13 +21020,13 @@
         <v>841</v>
       </c>
       <c r="D826" s="14" t="s">
-        <v>2081</v>
+        <v>2077</v>
       </c>
       <c r="E826" s="14" t="s">
-        <v>2146</v>
+        <v>2142</v>
       </c>
       <c r="F826" s="14" t="s">
-        <v>2210</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="827" spans="1:6" x14ac:dyDescent="0.3">
@@ -21035,13 +21035,13 @@
         <v>861</v>
       </c>
       <c r="D827" s="14" t="s">
-        <v>2082</v>
+        <v>2078</v>
       </c>
       <c r="E827" s="14" t="s">
-        <v>2147</v>
+        <v>2143</v>
       </c>
       <c r="F827" s="14" t="s">
-        <v>2211</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="828" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -21050,13 +21050,13 @@
         <v>882</v>
       </c>
       <c r="D828" s="14" t="s">
-        <v>2083</v>
+        <v>2079</v>
       </c>
       <c r="E828" s="14" t="s">
-        <v>2148</v>
+        <v>2144</v>
       </c>
       <c r="F828" s="14" t="s">
-        <v>2212</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="829" spans="1:6" x14ac:dyDescent="0.3">
@@ -21065,13 +21065,13 @@
         <v>887</v>
       </c>
       <c r="D829" s="14" t="s">
-        <v>2084</v>
+        <v>2080</v>
       </c>
       <c r="E829" s="14" t="s">
-        <v>2149</v>
+        <v>2145</v>
       </c>
       <c r="F829" s="14" t="s">
-        <v>2213</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="830" spans="1:6" x14ac:dyDescent="0.3">
@@ -21080,30 +21080,30 @@
         <v>891</v>
       </c>
       <c r="D830" s="14" t="s">
-        <v>2085</v>
+        <v>2081</v>
       </c>
       <c r="E830" s="14" t="s">
-        <v>2150</v>
+        <v>2146</v>
       </c>
       <c r="F830" s="14" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="831" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A831" s="24" t="s">
-        <v>2076</v>
+        <v>2072</v>
       </c>
       <c r="C831" s="13">
         <v>896</v>
       </c>
       <c r="D831" s="14" t="s">
-        <v>2086</v>
+        <v>2082</v>
       </c>
       <c r="E831" s="14" t="s">
-        <v>2151</v>
+        <v>2147</v>
       </c>
       <c r="F831" s="14" t="s">
-        <v>2215</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="832" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -21112,13 +21112,13 @@
         <v>899</v>
       </c>
       <c r="D832" s="14" t="s">
-        <v>2087</v>
+        <v>2083</v>
       </c>
       <c r="E832" s="14" t="s">
-        <v>2152</v>
+        <v>2148</v>
       </c>
       <c r="F832" s="14" t="s">
-        <v>2216</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="833" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -21127,13 +21127,13 @@
         <v>902</v>
       </c>
       <c r="D833" s="14" t="s">
-        <v>2088</v>
+        <v>2084</v>
       </c>
       <c r="E833" s="14" t="s">
-        <v>2221</v>
+        <v>2217</v>
       </c>
       <c r="F833" s="14" t="s">
-        <v>2222</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="834" spans="1:6" x14ac:dyDescent="0.3">
@@ -21142,13 +21142,13 @@
         <v>915</v>
       </c>
       <c r="D834" s="14" t="s">
-        <v>2089</v>
+        <v>2085</v>
       </c>
       <c r="E834" s="14" t="s">
-        <v>2153</v>
+        <v>2149</v>
       </c>
       <c r="F834" s="14" t="s">
-        <v>2217</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="835" spans="1:6" x14ac:dyDescent="0.3">
@@ -21158,18 +21158,18 @@
         <v>918</v>
       </c>
       <c r="D835" s="28" t="s">
-        <v>2090</v>
+        <v>2086</v>
       </c>
       <c r="E835" s="28" t="s">
-        <v>2154</v>
+        <v>2150</v>
       </c>
       <c r="F835" s="28" t="s">
-        <v>2218</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="836" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A836" s="33" t="s">
-        <v>2223</v>
+        <v>2219</v>
       </c>
       <c r="B836" s="22"/>
       <c r="C836" s="22"/>
@@ -21275,13 +21275,13 @@
         <v>126</v>
       </c>
       <c r="D843" s="14" t="s">
-        <v>2224</v>
+        <v>2220</v>
       </c>
       <c r="E843" s="14" t="s">
-        <v>2227</v>
+        <v>2223</v>
       </c>
       <c r="F843" s="14" t="s">
-        <v>2230</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="844" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -21290,13 +21290,13 @@
         <v>129</v>
       </c>
       <c r="D844" s="14" t="s">
-        <v>2225</v>
+        <v>2221</v>
       </c>
       <c r="E844" s="14" t="s">
-        <v>2228</v>
+        <v>2224</v>
       </c>
       <c r="F844" s="14" t="s">
-        <v>2231</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="845" spans="1:6" x14ac:dyDescent="0.3">
@@ -21306,21 +21306,21 @@
         <v>132</v>
       </c>
       <c r="D845" s="28" t="s">
-        <v>2226</v>
+        <v>2222</v>
       </c>
       <c r="E845" s="28" t="s">
-        <v>2229</v>
+        <v>2225</v>
       </c>
       <c r="F845" s="28" t="s">
-        <v>2232</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="846" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A846" s="33" t="s">
-        <v>2233</v>
+        <v>2229</v>
       </c>
       <c r="B846" s="22" t="s">
-        <v>2234</v>
+        <v>2230</v>
       </c>
       <c r="C846" s="22"/>
       <c r="D846" s="23"/>
@@ -21410,13 +21410,13 @@
         <v>89</v>
       </c>
       <c r="D852" s="14" t="s">
-        <v>2235</v>
+        <v>2231</v>
       </c>
       <c r="E852" s="14" t="s">
-        <v>2238</v>
+        <v>2234</v>
       </c>
       <c r="F852" s="14" t="s">
-        <v>2241</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="853" spans="1:6" x14ac:dyDescent="0.3">
@@ -21425,13 +21425,13 @@
         <v>92</v>
       </c>
       <c r="D853" s="14" t="s">
-        <v>2236</v>
+        <v>2232</v>
       </c>
       <c r="E853" s="14" t="s">
-        <v>2239</v>
+        <v>2235</v>
       </c>
       <c r="F853" s="14" t="s">
-        <v>2242</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="854" spans="1:6" x14ac:dyDescent="0.3">
@@ -21441,19 +21441,19 @@
         <v>95</v>
       </c>
       <c r="D854" s="28" t="s">
-        <v>2237</v>
+        <v>2233</v>
       </c>
       <c r="E854" s="28" t="s">
-        <v>2240</v>
+        <v>2236</v>
       </c>
       <c r="F854" s="28" t="s">
-        <v>2243</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="855" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A855" s="22"/>
       <c r="B855" s="22" t="s">
-        <v>2244</v>
+        <v>2240</v>
       </c>
       <c r="C855" s="22"/>
       <c r="D855" s="23"/>
@@ -21462,19 +21462,19 @@
     </row>
     <row r="856" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A856" s="24" t="s">
-        <v>2076</v>
+        <v>2072</v>
       </c>
       <c r="C856" s="13">
         <v>13</v>
       </c>
       <c r="D856" s="14" t="s">
-        <v>2245</v>
+        <v>2241</v>
       </c>
       <c r="E856" s="14" t="s">
-        <v>2255</v>
+        <v>2251</v>
       </c>
       <c r="F856" s="14" t="s">
-        <v>2265</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="857" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -21483,13 +21483,13 @@
         <v>16</v>
       </c>
       <c r="D857" s="14" t="s">
-        <v>2246</v>
+        <v>2242</v>
       </c>
       <c r="E857" s="14" t="s">
-        <v>2256</v>
+        <v>2252</v>
       </c>
       <c r="F857" s="14" t="s">
-        <v>2266</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="858" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -21498,13 +21498,13 @@
         <v>19</v>
       </c>
       <c r="D858" s="14" t="s">
-        <v>2247</v>
+        <v>2243</v>
       </c>
       <c r="E858" s="14" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="F858" s="14" t="s">
-        <v>2267</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="859" spans="1:6" x14ac:dyDescent="0.3">
@@ -21513,30 +21513,30 @@
         <v>24</v>
       </c>
       <c r="D859" s="14" t="s">
-        <v>2248</v>
+        <v>2244</v>
       </c>
       <c r="E859" s="14" t="s">
-        <v>2258</v>
+        <v>2254</v>
       </c>
       <c r="F859" s="14" t="s">
-        <v>2268</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="860" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A860" s="24" t="s">
-        <v>2076</v>
+        <v>2072</v>
       </c>
       <c r="C860" s="13">
         <v>29</v>
       </c>
       <c r="D860" s="14" t="s">
-        <v>2249</v>
+        <v>2245</v>
       </c>
       <c r="E860" s="14" t="s">
-        <v>2259</v>
+        <v>2255</v>
       </c>
       <c r="F860" s="14" t="s">
-        <v>2269</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="861" spans="1:6" x14ac:dyDescent="0.3">
@@ -21545,13 +21545,13 @@
         <v>32</v>
       </c>
       <c r="D861" s="14" t="s">
-        <v>2250</v>
+        <v>2246</v>
       </c>
       <c r="E861" s="14" t="s">
-        <v>2260</v>
+        <v>2256</v>
       </c>
       <c r="F861" s="14" t="s">
-        <v>2270</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="862" spans="1:6" x14ac:dyDescent="0.3">
@@ -21560,30 +21560,30 @@
         <v>37</v>
       </c>
       <c r="D862" s="14" t="s">
-        <v>2251</v>
+        <v>2247</v>
       </c>
       <c r="E862" s="14" t="s">
-        <v>2261</v>
+        <v>2257</v>
       </c>
       <c r="F862" s="14" t="s">
-        <v>2271</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="863" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A863" s="24" t="s">
-        <v>2076</v>
+        <v>2072</v>
       </c>
       <c r="C863" s="13">
         <v>42</v>
       </c>
       <c r="D863" s="14" t="s">
-        <v>2252</v>
+        <v>2248</v>
       </c>
       <c r="E863" s="14" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="F863" s="14" t="s">
-        <v>2272</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="864" spans="1:6" x14ac:dyDescent="0.3">
@@ -21592,13 +21592,13 @@
         <v>78</v>
       </c>
       <c r="D864" s="14" t="s">
-        <v>2253</v>
+        <v>2249</v>
       </c>
       <c r="E864" s="14" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
       <c r="F864" s="14" t="s">
-        <v>2273</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="865" spans="1:6" x14ac:dyDescent="0.3">
@@ -21608,21 +21608,21 @@
         <v>81</v>
       </c>
       <c r="D865" s="28" t="s">
-        <v>2254</v>
+        <v>2250</v>
       </c>
       <c r="E865" s="28" t="s">
-        <v>2264</v>
+        <v>2260</v>
       </c>
       <c r="F865" s="28" t="s">
-        <v>2274</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="866" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A866" s="33" t="s">
-        <v>2275</v>
+        <v>2271</v>
       </c>
       <c r="B866" s="22" t="s">
-        <v>2276</v>
+        <v>2272</v>
       </c>
       <c r="C866" s="22"/>
       <c r="D866" s="23"/>
@@ -21631,19 +21631,19 @@
     </row>
     <row r="867" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A867" s="24" t="s">
-        <v>2076</v>
+        <v>2072</v>
       </c>
       <c r="C867" s="13">
         <v>75</v>
       </c>
       <c r="D867" s="14" t="s">
+        <v>2273</v>
+      </c>
+      <c r="E867" s="14" t="s">
         <v>2277</v>
       </c>
-      <c r="E867" s="14" t="s">
+      <c r="F867" s="14" t="s">
         <v>2281</v>
-      </c>
-      <c r="F867" s="14" t="s">
-        <v>2285</v>
       </c>
     </row>
     <row r="868" spans="1:6" x14ac:dyDescent="0.3">
@@ -21654,13 +21654,13 @@
         <v>123</v>
       </c>
       <c r="D868" s="14" t="s">
+        <v>2274</v>
+      </c>
+      <c r="E868" s="14" t="s">
         <v>2278</v>
       </c>
-      <c r="E868" s="14" t="s">
+      <c r="F868" s="14" t="s">
         <v>2282</v>
-      </c>
-      <c r="F868" s="14" t="s">
-        <v>2286</v>
       </c>
     </row>
     <row r="869" spans="1:6" x14ac:dyDescent="0.3">
@@ -21671,13 +21671,13 @@
         <v>128</v>
       </c>
       <c r="D869" s="14" t="s">
+        <v>2275</v>
+      </c>
+      <c r="E869" s="14" t="s">
         <v>2279</v>
       </c>
-      <c r="E869" s="14" t="s">
+      <c r="F869" s="14" t="s">
         <v>2283</v>
-      </c>
-      <c r="F869" s="14" t="s">
-        <v>2287</v>
       </c>
     </row>
     <row r="870" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -21689,19 +21689,19 @@
         <v>133</v>
       </c>
       <c r="D870" s="28" t="s">
+        <v>2276</v>
+      </c>
+      <c r="E870" s="28" t="s">
         <v>2280</v>
       </c>
-      <c r="E870" s="28" t="s">
+      <c r="F870" s="28" t="s">
         <v>2284</v>
-      </c>
-      <c r="F870" s="28" t="s">
-        <v>2288</v>
       </c>
     </row>
     <row r="871" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A871" s="22"/>
       <c r="B871" s="22" t="s">
-        <v>2290</v>
+        <v>2286</v>
       </c>
       <c r="C871" s="22"/>
       <c r="D871" s="23"/>
@@ -21714,13 +21714,13 @@
         <v>23</v>
       </c>
       <c r="D872" s="14" t="s">
-        <v>2289</v>
+        <v>2285</v>
       </c>
       <c r="E872" s="14" t="s">
-        <v>2308</v>
+        <v>2304</v>
       </c>
       <c r="F872" s="14" t="s">
-        <v>2326</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="873" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -21729,13 +21729,13 @@
         <v>26</v>
       </c>
       <c r="D873" s="14" t="s">
-        <v>2291</v>
+        <v>2287</v>
       </c>
       <c r="E873" s="14" t="s">
-        <v>2309</v>
+        <v>2305</v>
       </c>
       <c r="F873" s="14" t="s">
-        <v>2327</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="874" spans="1:6" x14ac:dyDescent="0.3">
@@ -21744,13 +21744,13 @@
         <v>30</v>
       </c>
       <c r="D874" s="14" t="s">
-        <v>2292</v>
+        <v>2288</v>
       </c>
       <c r="E874" s="14" t="s">
-        <v>2310</v>
+        <v>2306</v>
       </c>
       <c r="F874" s="14" t="s">
-        <v>2328</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="875" spans="1:6" x14ac:dyDescent="0.3">
@@ -21759,13 +21759,13 @@
         <v>35</v>
       </c>
       <c r="D875" s="14" t="s">
-        <v>2293</v>
+        <v>2289</v>
       </c>
       <c r="E875" s="14" t="s">
-        <v>2311</v>
+        <v>2307</v>
       </c>
       <c r="F875" s="14" t="s">
-        <v>2329</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="876" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -21774,13 +21774,13 @@
         <v>38</v>
       </c>
       <c r="D876" s="14" t="s">
-        <v>2294</v>
+        <v>2290</v>
       </c>
       <c r="E876" s="14" t="s">
-        <v>2312</v>
+        <v>2308</v>
       </c>
       <c r="F876" s="14" t="s">
-        <v>2330</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="877" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -21789,13 +21789,13 @@
         <v>41</v>
       </c>
       <c r="D877" s="14" t="s">
-        <v>2295</v>
+        <v>2291</v>
       </c>
       <c r="E877" s="14" t="s">
-        <v>2313</v>
+        <v>2309</v>
       </c>
       <c r="F877" s="14" t="s">
-        <v>2331</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="878" spans="1:6" x14ac:dyDescent="0.3">
@@ -21804,13 +21804,13 @@
         <v>44</v>
       </c>
       <c r="D878" s="14" t="s">
-        <v>2296</v>
+        <v>2292</v>
       </c>
       <c r="E878" s="14" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="F878" s="14" t="s">
-        <v>2332</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="879" spans="1:6" x14ac:dyDescent="0.3">
@@ -21819,13 +21819,13 @@
         <v>49</v>
       </c>
       <c r="D879" s="14" t="s">
-        <v>2297</v>
+        <v>2293</v>
       </c>
       <c r="E879" s="14" t="s">
-        <v>2315</v>
+        <v>2311</v>
       </c>
       <c r="F879" s="14" t="s">
-        <v>2333</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="880" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -21834,13 +21834,13 @@
         <v>52</v>
       </c>
       <c r="D880" s="14" t="s">
-        <v>2298</v>
+        <v>2294</v>
       </c>
       <c r="E880" s="14" t="s">
-        <v>2316</v>
+        <v>2312</v>
       </c>
       <c r="F880" s="14" t="s">
-        <v>2334</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="881" spans="1:6" x14ac:dyDescent="0.3">
@@ -21849,13 +21849,13 @@
         <v>55</v>
       </c>
       <c r="D881" s="14" t="s">
-        <v>2299</v>
+        <v>2295</v>
       </c>
       <c r="E881" s="14" t="s">
-        <v>2317</v>
+        <v>2313</v>
       </c>
       <c r="F881" s="14" t="s">
-        <v>2335</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="882" spans="1:6" x14ac:dyDescent="0.3">
@@ -21866,13 +21866,13 @@
         <v>60</v>
       </c>
       <c r="D882" s="14" t="s">
-        <v>2300</v>
+        <v>2296</v>
       </c>
       <c r="E882" s="14" t="s">
-        <v>2318</v>
+        <v>2314</v>
       </c>
       <c r="F882" s="14" t="s">
-        <v>2336</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="883" spans="1:6" x14ac:dyDescent="0.3">
@@ -21881,13 +21881,13 @@
         <v>63</v>
       </c>
       <c r="D883" s="14" t="s">
-        <v>2301</v>
+        <v>2297</v>
       </c>
       <c r="E883" s="14" t="s">
-        <v>2319</v>
+        <v>2315</v>
       </c>
       <c r="F883" s="14" t="s">
-        <v>2337</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="884" spans="1:6" x14ac:dyDescent="0.3">
@@ -21896,13 +21896,13 @@
         <v>68</v>
       </c>
       <c r="D884" s="14" t="s">
-        <v>2302</v>
+        <v>2298</v>
       </c>
       <c r="E884" s="14" t="s">
-        <v>2320</v>
+        <v>2316</v>
       </c>
       <c r="F884" s="14" t="s">
-        <v>2338</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="885" spans="1:6" x14ac:dyDescent="0.3">
@@ -21911,13 +21911,13 @@
         <v>71</v>
       </c>
       <c r="D885" s="14" t="s">
-        <v>2303</v>
+        <v>2299</v>
       </c>
       <c r="E885" s="14" t="s">
-        <v>2321</v>
+        <v>2317</v>
       </c>
       <c r="F885" s="14" t="s">
-        <v>2339</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="886" spans="1:6" x14ac:dyDescent="0.3">
@@ -21926,13 +21926,13 @@
         <v>76</v>
       </c>
       <c r="D886" s="14" t="s">
-        <v>2304</v>
+        <v>2300</v>
       </c>
       <c r="E886" s="14" t="s">
-        <v>2322</v>
+        <v>2318</v>
       </c>
       <c r="F886" s="14" t="s">
-        <v>2340</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="887" spans="1:6" x14ac:dyDescent="0.3">
@@ -21941,30 +21941,30 @@
         <v>79</v>
       </c>
       <c r="D887" s="14" t="s">
-        <v>2305</v>
+        <v>2301</v>
       </c>
       <c r="E887" s="14" t="s">
-        <v>2323</v>
+        <v>2319</v>
       </c>
       <c r="F887" s="14" t="s">
-        <v>2341</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="888" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A888" s="24" t="s">
-        <v>2076</v>
+        <v>2072</v>
       </c>
       <c r="C888" s="13">
         <v>84</v>
       </c>
       <c r="D888" s="14" t="s">
-        <v>2306</v>
+        <v>2302</v>
       </c>
       <c r="E888" s="14" t="s">
-        <v>2324</v>
+        <v>2320</v>
       </c>
       <c r="F888" s="14" t="s">
-        <v>2342</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="889" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -21974,19 +21974,19 @@
         <v>87</v>
       </c>
       <c r="D889" s="28" t="s">
-        <v>2307</v>
+        <v>2303</v>
       </c>
       <c r="E889" s="28" t="s">
-        <v>2325</v>
+        <v>2321</v>
       </c>
       <c r="F889" s="28" t="s">
-        <v>2343</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="890" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A890" s="22"/>
       <c r="B890" s="22" t="s">
-        <v>2344</v>
+        <v>2340</v>
       </c>
       <c r="C890" s="22"/>
       <c r="D890" s="23"/>
@@ -22001,13 +22001,13 @@
         <v>22</v>
       </c>
       <c r="D891" s="14" t="s">
-        <v>2345</v>
+        <v>2341</v>
       </c>
       <c r="E891" s="14" t="s">
-        <v>2359</v>
+        <v>2355</v>
       </c>
       <c r="F891" s="14" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="892" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -22016,13 +22016,13 @@
         <v>26</v>
       </c>
       <c r="D892" s="14" t="s">
-        <v>2346</v>
+        <v>2342</v>
       </c>
       <c r="E892" s="14" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="F892" s="14" t="s">
-        <v>2374</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="893" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -22031,13 +22031,13 @@
         <v>29</v>
       </c>
       <c r="D893" s="14" t="s">
-        <v>2347</v>
+        <v>2343</v>
       </c>
       <c r="E893" s="14" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="F893" s="14" t="s">
-        <v>2375</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="894" spans="1:6" x14ac:dyDescent="0.3">
@@ -22046,13 +22046,13 @@
         <v>66</v>
       </c>
       <c r="D894" s="14" t="s">
-        <v>2348</v>
+        <v>2344</v>
       </c>
       <c r="E894" s="14" t="s">
-        <v>2362</v>
+        <v>2358</v>
       </c>
       <c r="F894" s="14" t="s">
-        <v>2376</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="895" spans="1:6" x14ac:dyDescent="0.3">
@@ -22063,13 +22063,13 @@
         <v>83</v>
       </c>
       <c r="D895" s="14" t="s">
-        <v>2349</v>
+        <v>2345</v>
       </c>
       <c r="E895" s="14" t="s">
-        <v>2363</v>
+        <v>2359</v>
       </c>
       <c r="F895" s="14" t="s">
-        <v>2377</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="896" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -22078,13 +22078,13 @@
         <v>88</v>
       </c>
       <c r="D896" s="14" t="s">
-        <v>2350</v>
+        <v>2346</v>
       </c>
       <c r="E896" s="14" t="s">
-        <v>2364</v>
+        <v>2360</v>
       </c>
       <c r="F896" s="14" t="s">
-        <v>2378</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="897" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -22093,13 +22093,13 @@
         <v>91</v>
       </c>
       <c r="D897" s="14" t="s">
-        <v>2351</v>
+        <v>2347</v>
       </c>
       <c r="E897" s="14" t="s">
-        <v>2365</v>
+        <v>2361</v>
       </c>
       <c r="F897" s="14" t="s">
-        <v>2379</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="898" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -22110,13 +22110,13 @@
         <v>96</v>
       </c>
       <c r="D898" s="14" t="s">
-        <v>2352</v>
+        <v>2348</v>
       </c>
       <c r="E898" s="14" t="s">
-        <v>2366</v>
+        <v>2362</v>
       </c>
       <c r="F898" s="14" t="s">
-        <v>2380</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="899" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -22125,13 +22125,13 @@
         <v>99</v>
       </c>
       <c r="D899" s="14" t="s">
-        <v>2353</v>
+        <v>2349</v>
       </c>
       <c r="E899" s="14" t="s">
-        <v>2367</v>
+        <v>2363</v>
       </c>
       <c r="F899" s="14" t="s">
-        <v>2381</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="900" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -22140,13 +22140,13 @@
         <v>102</v>
       </c>
       <c r="D900" s="14" t="s">
-        <v>2354</v>
+        <v>2350</v>
       </c>
       <c r="E900" s="14" t="s">
-        <v>2368</v>
+        <v>2364</v>
       </c>
       <c r="F900" s="14" t="s">
-        <v>2382</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="901" spans="1:6" x14ac:dyDescent="0.3">
@@ -22155,13 +22155,13 @@
         <v>107</v>
       </c>
       <c r="D901" s="14" t="s">
-        <v>2355</v>
+        <v>2351</v>
       </c>
       <c r="E901" s="14" t="s">
-        <v>2369</v>
+        <v>2365</v>
       </c>
       <c r="F901" s="14" t="s">
-        <v>2383</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="902" spans="1:6" x14ac:dyDescent="0.3">
@@ -22172,13 +22172,13 @@
         <v>112</v>
       </c>
       <c r="D902" s="14" t="s">
-        <v>2356</v>
+        <v>2352</v>
       </c>
       <c r="E902" s="14" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
       <c r="F902" s="14" t="s">
-        <v>2384</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="903" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -22187,13 +22187,13 @@
         <v>115</v>
       </c>
       <c r="D903" s="14" t="s">
-        <v>2357</v>
+        <v>2353</v>
       </c>
       <c r="E903" s="14" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
       <c r="F903" s="14" t="s">
-        <v>2385</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="904" spans="1:6" x14ac:dyDescent="0.3">
@@ -22203,21 +22203,21 @@
         <v>118</v>
       </c>
       <c r="D904" s="28" t="s">
-        <v>2358</v>
+        <v>2354</v>
       </c>
       <c r="E904" s="28" t="s">
-        <v>2372</v>
+        <v>2368</v>
       </c>
       <c r="F904" s="28" t="s">
-        <v>2386</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="905" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A905" s="33" t="s">
-        <v>2387</v>
+        <v>2383</v>
       </c>
       <c r="B905" s="22" t="s">
-        <v>2388</v>
+        <v>2384</v>
       </c>
       <c r="C905" s="22"/>
       <c r="D905" s="23"/>
@@ -22232,13 +22232,13 @@
         <v>19</v>
       </c>
       <c r="D906" s="14" t="s">
-        <v>2389</v>
+        <v>2385</v>
       </c>
       <c r="E906" s="14" t="s">
-        <v>2449</v>
+        <v>2445</v>
       </c>
       <c r="F906" s="14" t="s">
-        <v>2510</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="907" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -22247,13 +22247,13 @@
         <v>22</v>
       </c>
       <c r="D907" s="14" t="s">
-        <v>2390</v>
+        <v>2386</v>
       </c>
       <c r="E907" s="14" t="s">
-        <v>2450</v>
+        <v>2446</v>
       </c>
       <c r="F907" s="14" t="s">
-        <v>2511</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="908" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -22265,10 +22265,10 @@
         <v>643</v>
       </c>
       <c r="E908" s="14" t="s">
-        <v>2451</v>
+        <v>2447</v>
       </c>
       <c r="F908" s="14" t="s">
-        <v>2512</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="909" spans="1:6" x14ac:dyDescent="0.3">
@@ -22279,13 +22279,13 @@
         <v>60</v>
       </c>
       <c r="D909" s="14" t="s">
-        <v>2391</v>
+        <v>2387</v>
       </c>
       <c r="E909" s="14" t="s">
-        <v>2452</v>
+        <v>2448</v>
       </c>
       <c r="F909" s="14" t="s">
-        <v>2513</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="910" spans="1:6" x14ac:dyDescent="0.3">
@@ -22296,13 +22296,13 @@
         <v>65</v>
       </c>
       <c r="D910" s="14" t="s">
-        <v>2392</v>
+        <v>2388</v>
       </c>
       <c r="E910" s="14" t="s">
-        <v>2453</v>
+        <v>2449</v>
       </c>
       <c r="F910" s="14" t="s">
-        <v>2514</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="911" spans="1:6" x14ac:dyDescent="0.3">
@@ -22311,13 +22311,13 @@
         <v>78</v>
       </c>
       <c r="D911" s="14" t="s">
-        <v>2393</v>
+        <v>2389</v>
       </c>
       <c r="E911" s="14" t="s">
-        <v>2454</v>
+        <v>2450</v>
       </c>
       <c r="F911" s="14" t="s">
-        <v>2515</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="912" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -22326,13 +22326,13 @@
         <v>88</v>
       </c>
       <c r="D912" s="14" t="s">
-        <v>2394</v>
+        <v>2390</v>
       </c>
       <c r="E912" s="14" t="s">
-        <v>2455</v>
+        <v>2451</v>
       </c>
       <c r="F912" s="14" t="s">
-        <v>2516</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="913" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -22341,13 +22341,13 @@
         <v>96</v>
       </c>
       <c r="D913" s="14" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
       <c r="E913" s="14" t="s">
-        <v>2456</v>
+        <v>2452</v>
       </c>
       <c r="F913" s="14" t="s">
-        <v>2517</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="914" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -22356,13 +22356,13 @@
         <v>103</v>
       </c>
       <c r="D914" s="14" t="s">
-        <v>2396</v>
+        <v>2392</v>
       </c>
       <c r="E914" s="14" t="s">
-        <v>2457</v>
+        <v>2453</v>
       </c>
       <c r="F914" s="14" t="s">
-        <v>2518</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="915" spans="1:6" x14ac:dyDescent="0.3">
@@ -22371,13 +22371,13 @@
         <v>106</v>
       </c>
       <c r="D915" s="14" t="s">
-        <v>2397</v>
+        <v>2393</v>
       </c>
       <c r="E915" s="14" t="s">
-        <v>2458</v>
+        <v>2454</v>
       </c>
       <c r="F915" s="14" t="s">
-        <v>2519</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="916" spans="1:6" x14ac:dyDescent="0.3">
@@ -22386,13 +22386,13 @@
         <v>113</v>
       </c>
       <c r="D916" s="14" t="s">
-        <v>2398</v>
+        <v>2394</v>
       </c>
       <c r="E916" s="14" t="s">
-        <v>2459</v>
+        <v>2455</v>
       </c>
       <c r="F916" s="14" t="s">
-        <v>2520</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="917" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -22401,13 +22401,13 @@
         <v>116</v>
       </c>
       <c r="D917" s="14" t="s">
-        <v>2399</v>
+        <v>2395</v>
       </c>
       <c r="E917" s="14" t="s">
-        <v>2460</v>
+        <v>2456</v>
       </c>
       <c r="F917" s="14" t="s">
-        <v>2521</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="918" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -22416,13 +22416,13 @@
         <v>121</v>
       </c>
       <c r="D918" s="14" t="s">
-        <v>2400</v>
+        <v>2396</v>
       </c>
       <c r="E918" s="14" t="s">
-        <v>2461</v>
+        <v>2457</v>
       </c>
       <c r="F918" s="14" t="s">
-        <v>2522</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="919" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -22431,13 +22431,13 @@
         <v>124</v>
       </c>
       <c r="D919" s="14" t="s">
-        <v>2401</v>
+        <v>2397</v>
       </c>
       <c r="E919" s="14" t="s">
-        <v>2462</v>
+        <v>2458</v>
       </c>
       <c r="F919" s="14" t="s">
-        <v>2523</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="920" spans="1:6" x14ac:dyDescent="0.3">
@@ -22446,13 +22446,13 @@
         <v>132</v>
       </c>
       <c r="D920" s="14" t="s">
-        <v>2402</v>
+        <v>2398</v>
       </c>
       <c r="E920" s="14" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
       <c r="F920" s="14" t="s">
-        <v>2524</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="921" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -22461,13 +22461,13 @@
         <v>137</v>
       </c>
       <c r="D921" s="14" t="s">
-        <v>2403</v>
+        <v>2399</v>
       </c>
       <c r="E921" s="14" t="s">
-        <v>2464</v>
+        <v>2460</v>
       </c>
       <c r="F921" s="14" t="s">
-        <v>2525</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="922" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -22476,13 +22476,13 @@
         <v>140</v>
       </c>
       <c r="D922" s="14" t="s">
-        <v>2404</v>
+        <v>2400</v>
       </c>
       <c r="E922" s="14" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
       <c r="F922" s="14" t="s">
-        <v>2526</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="923" spans="1:6" x14ac:dyDescent="0.3">
@@ -22491,13 +22491,13 @@
         <v>145</v>
       </c>
       <c r="D923" s="14" t="s">
-        <v>2405</v>
+        <v>2401</v>
       </c>
       <c r="E923" s="14" t="s">
-        <v>2466</v>
+        <v>2462</v>
       </c>
       <c r="F923" s="14" t="s">
-        <v>2527</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="924" spans="1:6" x14ac:dyDescent="0.3">
@@ -22506,13 +22506,13 @@
         <v>150</v>
       </c>
       <c r="D924" s="14" t="s">
-        <v>2406</v>
+        <v>2402</v>
       </c>
       <c r="E924" s="14" t="s">
-        <v>2467</v>
+        <v>2463</v>
       </c>
       <c r="F924" s="14" t="s">
-        <v>2528</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="925" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -22521,13 +22521,13 @@
         <v>159</v>
       </c>
       <c r="D925" s="14" t="s">
-        <v>2407</v>
+        <v>2403</v>
       </c>
       <c r="E925" s="14" t="s">
-        <v>2468</v>
+        <v>2464</v>
       </c>
       <c r="F925" s="14" t="s">
-        <v>2529</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="926" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -22536,13 +22536,13 @@
         <v>163</v>
       </c>
       <c r="D926" s="14" t="s">
-        <v>2408</v>
+        <v>2404</v>
       </c>
       <c r="E926" s="14" t="s">
-        <v>2469</v>
+        <v>2465</v>
       </c>
       <c r="F926" s="14" t="s">
-        <v>2530</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="927" spans="1:6" x14ac:dyDescent="0.3">
@@ -22551,13 +22551,13 @@
         <v>175</v>
       </c>
       <c r="D927" s="14" t="s">
-        <v>2409</v>
+        <v>2405</v>
       </c>
       <c r="E927" s="14" t="s">
-        <v>2470</v>
+        <v>2466</v>
       </c>
       <c r="F927" s="14" t="s">
-        <v>2531</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="928" spans="1:6" x14ac:dyDescent="0.3">
@@ -22566,13 +22566,13 @@
         <v>180</v>
       </c>
       <c r="D928" s="14" t="s">
-        <v>2410</v>
+        <v>2406</v>
       </c>
       <c r="E928" s="14" t="s">
-        <v>2471</v>
+        <v>2467</v>
       </c>
       <c r="F928" s="14" t="s">
-        <v>2532</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="929" spans="1:6" x14ac:dyDescent="0.3">
@@ -22581,13 +22581,13 @@
         <v>185</v>
       </c>
       <c r="D929" s="14" t="s">
-        <v>2411</v>
+        <v>2407</v>
       </c>
       <c r="E929" s="14" t="s">
-        <v>2472</v>
+        <v>2468</v>
       </c>
       <c r="F929" s="14" t="s">
-        <v>2533</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="930" spans="1:6" x14ac:dyDescent="0.3">
@@ -22598,13 +22598,13 @@
         <v>198</v>
       </c>
       <c r="D930" s="14" t="s">
-        <v>2412</v>
+        <v>2408</v>
       </c>
       <c r="E930" s="14" t="s">
-        <v>2473</v>
+        <v>2469</v>
       </c>
       <c r="F930" s="14" t="s">
-        <v>2534</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="931" spans="1:6" x14ac:dyDescent="0.3">
@@ -22613,13 +22613,13 @@
         <v>226</v>
       </c>
       <c r="D931" s="14" t="s">
-        <v>2413</v>
+        <v>2409</v>
       </c>
       <c r="E931" s="14" t="s">
-        <v>2474</v>
+        <v>2470</v>
       </c>
       <c r="F931" s="14" t="s">
-        <v>2535</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="932" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -22628,13 +22628,13 @@
         <v>240</v>
       </c>
       <c r="D932" s="14" t="s">
-        <v>2414</v>
+        <v>2410</v>
       </c>
       <c r="E932" s="14" t="s">
-        <v>2475</v>
+        <v>2471</v>
       </c>
       <c r="F932" s="14" t="s">
-        <v>2536</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="933" spans="1:6" x14ac:dyDescent="0.3">
@@ -22643,13 +22643,13 @@
         <v>245</v>
       </c>
       <c r="D933" s="14" t="s">
-        <v>2415</v>
+        <v>2411</v>
       </c>
       <c r="E933" s="14" t="s">
-        <v>2476</v>
+        <v>2472</v>
       </c>
       <c r="F933" s="14" t="s">
-        <v>2537</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="934" spans="1:6" x14ac:dyDescent="0.3">
@@ -22658,13 +22658,13 @@
         <v>250</v>
       </c>
       <c r="D934" s="14" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="E934" s="14" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="F934" s="14" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="935" spans="1:6" x14ac:dyDescent="0.3">
@@ -22675,13 +22675,13 @@
         <v>287</v>
       </c>
       <c r="D935" s="14" t="s">
-        <v>2416</v>
+        <v>2412</v>
       </c>
       <c r="E935" s="14" t="s">
-        <v>2477</v>
+        <v>2473</v>
       </c>
       <c r="F935" s="14" t="s">
-        <v>2538</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="936" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -22690,13 +22690,13 @@
         <v>292</v>
       </c>
       <c r="D936" s="14" t="s">
-        <v>2417</v>
+        <v>2413</v>
       </c>
       <c r="E936" s="14" t="s">
-        <v>2478</v>
+        <v>2474</v>
       </c>
       <c r="F936" s="14" t="s">
-        <v>2539</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="937" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -22705,13 +22705,13 @@
         <v>295</v>
       </c>
       <c r="D937" s="14" t="s">
-        <v>2418</v>
+        <v>2414</v>
       </c>
       <c r="E937" s="14" t="s">
-        <v>2479</v>
+        <v>2475</v>
       </c>
       <c r="F937" s="14" t="s">
-        <v>2540</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="938" spans="1:6" x14ac:dyDescent="0.3">
@@ -22737,13 +22737,13 @@
         <v>305</v>
       </c>
       <c r="D939" s="14" t="s">
-        <v>2419</v>
+        <v>2415</v>
       </c>
       <c r="E939" s="14" t="s">
-        <v>2480</v>
+        <v>2476</v>
       </c>
       <c r="F939" s="14" t="s">
-        <v>2541</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="940" spans="1:6" x14ac:dyDescent="0.3">
@@ -22752,13 +22752,13 @@
         <v>308</v>
       </c>
       <c r="D940" s="14" t="s">
-        <v>2420</v>
+        <v>2416</v>
       </c>
       <c r="E940" s="14" t="s">
-        <v>2481</v>
+        <v>2477</v>
       </c>
       <c r="F940" s="14" t="s">
-        <v>2542</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="941" spans="1:6" x14ac:dyDescent="0.3">
@@ -22769,13 +22769,13 @@
         <v>317</v>
       </c>
       <c r="D941" s="14" t="s">
-        <v>2421</v>
+        <v>2417</v>
       </c>
       <c r="E941" s="14" t="s">
-        <v>2482</v>
+        <v>2478</v>
       </c>
       <c r="F941" s="14" t="s">
-        <v>2543</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="942" spans="1:6" x14ac:dyDescent="0.3">
@@ -22784,13 +22784,13 @@
         <v>321</v>
       </c>
       <c r="D942" s="14" t="s">
-        <v>2422</v>
+        <v>2418</v>
       </c>
       <c r="E942" s="14" t="s">
-        <v>2483</v>
+        <v>2479</v>
       </c>
       <c r="F942" s="14" t="s">
-        <v>2544</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="943" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -22799,13 +22799,13 @@
         <v>326</v>
       </c>
       <c r="D943" s="14" t="s">
-        <v>2423</v>
+        <v>2419</v>
       </c>
       <c r="E943" s="14" t="s">
-        <v>2484</v>
+        <v>2480</v>
       </c>
       <c r="F943" s="14" t="s">
-        <v>2545</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="944" spans="1:6" x14ac:dyDescent="0.3">
@@ -22816,13 +22816,13 @@
         <v>335</v>
       </c>
       <c r="D944" s="14" t="s">
-        <v>2424</v>
+        <v>2420</v>
       </c>
       <c r="E944" s="14" t="s">
-        <v>2485</v>
+        <v>2481</v>
       </c>
       <c r="F944" s="14" t="s">
-        <v>2546</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="945" spans="1:6" x14ac:dyDescent="0.3">
@@ -22831,13 +22831,13 @@
         <v>340</v>
       </c>
       <c r="D945" s="14" t="s">
-        <v>2425</v>
+        <v>2421</v>
       </c>
       <c r="E945" s="14" t="s">
-        <v>2486</v>
+        <v>2482</v>
       </c>
       <c r="F945" s="14" t="s">
-        <v>2547</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="946" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -22848,13 +22848,13 @@
         <v>345</v>
       </c>
       <c r="D946" s="14" t="s">
-        <v>2426</v>
+        <v>2422</v>
       </c>
       <c r="E946" s="14" t="s">
-        <v>2487</v>
+        <v>2483</v>
       </c>
       <c r="F946" s="14" t="s">
-        <v>2548</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="947" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -22863,13 +22863,13 @@
         <v>350</v>
       </c>
       <c r="D947" s="14" t="s">
-        <v>2427</v>
+        <v>2423</v>
       </c>
       <c r="E947" s="14" t="s">
-        <v>2488</v>
+        <v>2484</v>
       </c>
       <c r="F947" s="14" t="s">
-        <v>2549</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="948" spans="1:6" x14ac:dyDescent="0.3">
@@ -22880,13 +22880,13 @@
         <v>359</v>
       </c>
       <c r="D948" s="14" t="s">
-        <v>2428</v>
+        <v>2424</v>
       </c>
       <c r="E948" s="14" t="s">
-        <v>2489</v>
+        <v>2485</v>
       </c>
       <c r="F948" s="14" t="s">
-        <v>2550</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="949" spans="1:6" x14ac:dyDescent="0.3">
@@ -22895,13 +22895,13 @@
         <v>364</v>
       </c>
       <c r="D949" s="14" t="s">
-        <v>2429</v>
+        <v>2425</v>
       </c>
       <c r="E949" s="14" t="s">
-        <v>2490</v>
+        <v>2486</v>
       </c>
       <c r="F949" s="14" t="s">
-        <v>2551</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="950" spans="1:6" x14ac:dyDescent="0.3">
@@ -22912,13 +22912,13 @@
         <v>369</v>
       </c>
       <c r="D950" s="14" t="s">
-        <v>2430</v>
+        <v>2426</v>
       </c>
       <c r="E950" s="14" t="s">
-        <v>2491</v>
+        <v>2487</v>
       </c>
       <c r="F950" s="14" t="s">
-        <v>2552</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="951" spans="1:6" x14ac:dyDescent="0.3">
@@ -22927,13 +22927,13 @@
         <v>372</v>
       </c>
       <c r="D951" s="14" t="s">
-        <v>2431</v>
+        <v>2427</v>
       </c>
       <c r="E951" s="14" t="s">
-        <v>2492</v>
+        <v>2488</v>
       </c>
       <c r="F951" s="14" t="s">
-        <v>2553</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="952" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -22942,13 +22942,13 @@
         <v>375</v>
       </c>
       <c r="D952" s="14" t="s">
-        <v>2432</v>
+        <v>2428</v>
       </c>
       <c r="E952" s="14" t="s">
-        <v>2493</v>
+        <v>2489</v>
       </c>
       <c r="F952" s="14" t="s">
-        <v>2554</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="953" spans="1:6" x14ac:dyDescent="0.3">
@@ -22957,13 +22957,13 @@
         <v>388</v>
       </c>
       <c r="D953" s="14" t="s">
-        <v>2433</v>
+        <v>2429</v>
       </c>
       <c r="E953" s="14" t="s">
-        <v>2494</v>
+        <v>2490</v>
       </c>
       <c r="F953" s="14" t="s">
-        <v>2555</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="954" spans="1:6" x14ac:dyDescent="0.3">
@@ -22972,13 +22972,13 @@
         <v>397</v>
       </c>
       <c r="D954" s="14" t="s">
-        <v>2434</v>
+        <v>2430</v>
       </c>
       <c r="E954" s="14" t="s">
-        <v>2495</v>
+        <v>2491</v>
       </c>
       <c r="F954" s="14" t="s">
-        <v>2556</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="955" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -22987,13 +22987,13 @@
         <v>413</v>
       </c>
       <c r="D955" s="14" t="s">
-        <v>2435</v>
+        <v>2431</v>
       </c>
       <c r="E955" s="14" t="s">
-        <v>2496</v>
+        <v>2492</v>
       </c>
       <c r="F955" s="14" t="s">
-        <v>2557</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="956" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -23002,13 +23002,13 @@
         <v>420</v>
       </c>
       <c r="D956" s="14" t="s">
-        <v>2436</v>
+        <v>2432</v>
       </c>
       <c r="E956" s="14" t="s">
-        <v>2497</v>
+        <v>2493</v>
       </c>
       <c r="F956" s="14" t="s">
-        <v>2558</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="957" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -23017,13 +23017,13 @@
         <v>451</v>
       </c>
       <c r="D957" s="14" t="s">
-        <v>2437</v>
+        <v>2433</v>
       </c>
       <c r="E957" s="14" t="s">
-        <v>2498</v>
+        <v>2494</v>
       </c>
       <c r="F957" s="14" t="s">
-        <v>2559</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="958" spans="1:6" x14ac:dyDescent="0.3">
@@ -23034,13 +23034,13 @@
         <v>464</v>
       </c>
       <c r="D958" s="14" t="s">
-        <v>2438</v>
+        <v>2434</v>
       </c>
       <c r="E958" s="14" t="s">
-        <v>2499</v>
+        <v>2495</v>
       </c>
       <c r="F958" s="14" t="s">
-        <v>2560</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="959" spans="1:6" x14ac:dyDescent="0.3">
@@ -23049,13 +23049,13 @@
         <v>476</v>
       </c>
       <c r="D959" s="14" t="s">
-        <v>2439</v>
+        <v>2435</v>
       </c>
       <c r="E959" s="14" t="s">
-        <v>2500</v>
+        <v>2496</v>
       </c>
       <c r="F959" s="14" t="s">
-        <v>2561</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="960" spans="1:6" x14ac:dyDescent="0.3">
@@ -23064,13 +23064,13 @@
         <v>481</v>
       </c>
       <c r="D960" s="14" t="s">
-        <v>2440</v>
+        <v>2436</v>
       </c>
       <c r="E960" s="14" t="s">
-        <v>2501</v>
+        <v>2497</v>
       </c>
       <c r="F960" s="14" t="s">
-        <v>2562</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="961" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -23079,13 +23079,13 @@
         <v>507</v>
       </c>
       <c r="D961" s="14" t="s">
-        <v>2441</v>
+        <v>2437</v>
       </c>
       <c r="E961" s="14" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
       <c r="F961" s="14" t="s">
-        <v>2563</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="962" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -23094,13 +23094,13 @@
         <v>525</v>
       </c>
       <c r="D962" s="14" t="s">
-        <v>2442</v>
+        <v>2438</v>
       </c>
       <c r="E962" s="14" t="s">
-        <v>2503</v>
+        <v>2499</v>
       </c>
       <c r="F962" s="14" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="963" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -23109,13 +23109,13 @@
         <v>531</v>
       </c>
       <c r="D963" s="14" t="s">
-        <v>2443</v>
+        <v>2439</v>
       </c>
       <c r="E963" s="14" t="s">
-        <v>2504</v>
+        <v>2500</v>
       </c>
       <c r="F963" s="14" t="s">
-        <v>2565</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="964" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -23124,13 +23124,13 @@
         <v>537</v>
       </c>
       <c r="D964" s="14" t="s">
-        <v>2444</v>
+        <v>2440</v>
       </c>
       <c r="E964" s="14" t="s">
-        <v>2505</v>
+        <v>2501</v>
       </c>
       <c r="F964" s="14" t="s">
-        <v>2566</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="965" spans="1:6" x14ac:dyDescent="0.3">
@@ -23139,13 +23139,13 @@
         <v>542</v>
       </c>
       <c r="D965" s="14" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="E965" s="14" t="s">
-        <v>2506</v>
+        <v>2502</v>
       </c>
       <c r="F965" s="14" t="s">
-        <v>2567</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="966" spans="1:6" x14ac:dyDescent="0.3">
@@ -23156,13 +23156,13 @@
         <v>604</v>
       </c>
       <c r="D966" s="14" t="s">
-        <v>2446</v>
+        <v>2442</v>
       </c>
       <c r="E966" s="14" t="s">
-        <v>2507</v>
+        <v>2503</v>
       </c>
       <c r="F966" s="14" t="s">
-        <v>2568</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="967" spans="1:6" x14ac:dyDescent="0.3">
@@ -23171,13 +23171,13 @@
         <v>615</v>
       </c>
       <c r="D967" s="14" t="s">
-        <v>2447</v>
+        <v>2443</v>
       </c>
       <c r="E967" s="14" t="s">
-        <v>2508</v>
+        <v>2504</v>
       </c>
       <c r="F967" s="14" t="s">
-        <v>2569</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="968" spans="1:6" x14ac:dyDescent="0.3">
@@ -23186,13 +23186,13 @@
         <v>618</v>
       </c>
       <c r="D968" s="14" t="s">
-        <v>2448</v>
+        <v>2444</v>
       </c>
       <c r="E968" s="14" t="s">
-        <v>2509</v>
+        <v>2505</v>
       </c>
       <c r="F968" s="14" t="s">
-        <v>2570</v>
+        <v>2566</v>
       </c>
     </row>
   </sheetData>
